--- a/output_results.xlsx
+++ b/output_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="140">
   <si>
     <t>classifier</t>
   </si>
@@ -58,71 +58,71 @@
     <t>lda</t>
   </si>
   <si>
-    <t>[[676 175]
- [215 838]]</t>
-  </si>
-  <si>
-    <t>[[623 228]
- [194 859]]</t>
-  </si>
-  <si>
-    <t>[[590 261]
- [353 700]]</t>
-  </si>
-  <si>
-    <t>[[700 151]
- [266 787]]</t>
-  </si>
-  <si>
-    <t>[[698 153]
- [289 764]]</t>
-  </si>
-  <si>
-    <t>[[679 172]
- [168 885]]</t>
+    <t>[[697 154]
+ [152 901]]</t>
+  </si>
+  <si>
+    <t>[[657 194]
+ [145 908]]</t>
+  </si>
+  <si>
+    <t>[[665 186]
+ [231 822]]</t>
   </si>
   <si>
     <t>[[702 149]
- [258 795]]</t>
-  </si>
-  <si>
-    <t>[[457 394]
- [410 643]]</t>
+ [180 873]]</t>
+  </si>
+  <si>
+    <t>[[710 141]
+ [217 836]]</t>
+  </si>
+  <si>
+    <t>[[693 158]
+ [110 943]]</t>
+  </si>
+  <si>
+    <t>[[699 152]
+ [126 927]]</t>
+  </si>
+  <si>
+    <t>[[493 358]
+ [396 657]]</t>
   </si>
   <si>
     <t>[[112   1]
- [ 39  58]]</t>
-  </si>
-  <si>
-    <t>[[93 20]
- [40 57]]</t>
-  </si>
-  <si>
-    <t>[[86 27]
- [20 77]]</t>
-  </si>
-  <si>
-    <t>[[109   4]
- [ 46  51]]</t>
-  </si>
-  <si>
-    <t>[[109   4]
- [ 34  63]]</t>
+ [ 23  74]]</t>
+  </si>
+  <si>
+    <t>[[96 17]
+ [22 75]]</t>
+  </si>
+  <si>
+    <t>[[97 16]
+ [13 84]]</t>
+  </si>
+  <si>
+    <t>[[108   5]
+ [ 21  76]]</t>
+  </si>
+  <si>
+    <t>[[112   1]
+ [ 22  75]]</t>
   </si>
   <si>
     <t>[[111   2]
- [ 24  73]]</t>
-  </si>
-  <si>
-    <t>[[107   6]
- [ 36  61]]</t>
-  </si>
-  <si>
-    <t>[[76 37]
- [34 63]]</t>
-  </si>
-  <si>
-    <t>[[13  7]
+ [ 13  84]]</t>
+  </si>
+  <si>
+    <t>[[100  13]
+ [ 15  82]]</t>
+  </si>
+  <si>
+    <t>[[81 32]
+ [17 80]]</t>
+  </si>
+  <si>
+    <t>[[17  3]
  [ 0 58]]</t>
   </si>
   <si>
@@ -131,379 +131,372 @@
   </si>
   <si>
     <t>[[19  1]
- [15 43]]</t>
-  </si>
-  <si>
-    <t>[[10 10]
- [ 2 56]]</t>
-  </si>
-  <si>
-    <t>[[ 4 16]
+ [11 47]]</t>
+  </si>
+  <si>
+    <t>[[ 5 15]
  [ 0 58]]</t>
   </si>
   <si>
-    <t>[[12  8]
+    <t>[[15  5]
  [ 0 58]]</t>
   </si>
   <si>
+    <t>[[18  2]
+ [ 0 58]]</t>
+  </si>
+  <si>
+    <t>[[ 8 12]
+ [13 45]]</t>
+  </si>
+  <si>
+    <t>[[18  2]
+ [10 60]]</t>
+  </si>
+  <si>
+    <t>[[15  5]
+ [ 5 65]]</t>
+  </si>
+  <si>
+    <t>[[11  9]
+ [ 1 69]]</t>
+  </si>
+  <si>
+    <t>[[ 2 18]
+ [ 3 67]]</t>
+  </si>
+  <si>
+    <t>[[20  0]
+ [24 46]]</t>
+  </si>
+  <si>
     <t>[[17  3]
- [ 0 58]]</t>
-  </si>
-  <si>
-    <t>[[10 10]
- [19 39]]</t>
+ [ 6 64]]</t>
+  </si>
+  <si>
+    <t>[[ 8 12]
+ [ 0 70]]</t>
   </si>
   <si>
     <t>[[17  3]
- [24 46]]</t>
-  </si>
-  <si>
-    <t>[[12  8]
- [17 53]]</t>
-  </si>
-  <si>
-    <t>[[10 10]
- [ 2 68]]</t>
-  </si>
-  <si>
-    <t>[[ 4 16]
- [ 2 68]]</t>
-  </si>
-  <si>
-    <t>[[20  0]
- [60 10]]</t>
-  </si>
-  <si>
-    <t>[[17  3]
- [12 58]]</t>
-  </si>
-  <si>
-    <t>[[10 10]
- [ 0 70]]</t>
-  </si>
-  <si>
-    <t>[[17  3]
- [45 25]]</t>
-  </si>
-  <si>
-    <t>[[684 185]
- [219 877]]</t>
-  </si>
-  <si>
-    <t>[[656 213]
- [247 849]]</t>
-  </si>
-  <si>
-    <t>[[572 297]
- [363 733]]</t>
-  </si>
-  <si>
-    <t>[[637 232]
- [266 830]]</t>
-  </si>
-  <si>
-    <t>[[717 152]
- [309 787]]</t>
-  </si>
-  <si>
-    <t>[[692 177]
- [228 868]]</t>
-  </si>
-  <si>
-    <t>[[697 172]
- [337 759]]</t>
-  </si>
-  <si>
-    <t>[[428 441]
- [415 681]]</t>
-  </si>
-  <si>
-    <t>[[801 183]
- [287 921]]</t>
-  </si>
-  <si>
-    <t>[[749 235]
- [384 824]]</t>
-  </si>
-  <si>
-    <t>[[724 260]
- [415 793]]</t>
-  </si>
-  <si>
-    <t>[[798 186]
- [420 788]]</t>
-  </si>
-  <si>
-    <t>[[834 150]
- [348 860]]</t>
-  </si>
-  <si>
-    <t>[[812 172]
- [342 866]]</t>
-  </si>
-  <si>
-    <t>[[801 183]
+ [21 49]]</t>
+  </si>
+  <si>
+    <t>[[691 178]
+ [136 960]]</t>
+  </si>
+  <si>
+    <t>[[674 195]
+ [201 895]]</t>
+  </si>
+  <si>
+    <t>[[643 226]
+ [261 835]]</t>
+  </si>
+  <si>
+    <t>[[655 214]
+ [201 895]]</t>
+  </si>
+  <si>
+    <t>[[727 142]
+ [239 857]]</t>
+  </si>
+  <si>
+    <t>[[694 175]
+ [159 937]]</t>
+  </si>
+  <si>
+    <t>[[694 175]
+ [195 901]]</t>
+  </si>
+  <si>
+    <t>[[510 359]
+ [365 731]]</t>
+  </si>
+  <si>
+    <t>[[808 176]
+ [246 962]]</t>
+  </si>
+  <si>
+    <t>[[772 212]
+ [265 943]]</t>
+  </si>
+  <si>
+    <t>[[797 187]
  [381 827]]</t>
   </si>
   <si>
-    <t>[[488 496]
- [382 826]]</t>
-  </si>
-  <si>
-    <t>[[147  26]
- [117 151]]</t>
-  </si>
-  <si>
-    <t>[[127  46]
- [126 142]]</t>
-  </si>
-  <si>
-    <t>[[ 92  81]
- [ 93 175]]</t>
-  </si>
-  <si>
-    <t>[[ 52 121]
- [ 78 190]]</t>
-  </si>
-  <si>
-    <t>[[163  10]
- [163 105]]</t>
+    <t>[[762 222]
+ [316 892]]</t>
+  </si>
+  <si>
+    <t>[[843 141]
+ [310 898]]</t>
+  </si>
+  <si>
+    <t>[[793 191]
+ [274 934]]</t>
+  </si>
+  <si>
+    <t>[[824 160]
+ [314 894]]</t>
+  </si>
+  <si>
+    <t>[[584 400]
+ [344 864]]</t>
+  </si>
+  <si>
+    <t>[[138  35]
+ [ 90 178]]</t>
+  </si>
+  <si>
+    <t>[[125  48]
+ [ 82 186]]</t>
+  </si>
+  <si>
+    <t>[[104  69]
+ [ 88 180]]</t>
+  </si>
+  <si>
+    <t>[[ 28 145]
+ [ 32 236]]</t>
+  </si>
+  <si>
+    <t>[[161  12]
+ [150 118]]</t>
   </si>
   <si>
     <t>[[142  31]
- [113 155]]</t>
-  </si>
-  <si>
-    <t>[[113  60]
- [ 51 217]]</t>
-  </si>
-  <si>
-    <t>[[101  72]
- [129 139]]</t>
-  </si>
-  <si>
-    <t>[[780 244]
- [364 957]]</t>
-  </si>
-  <si>
-    <t>[[764 260]
- [480 841]]</t>
-  </si>
-  <si>
-    <t>[[754 270]
- [517 804]]</t>
-  </si>
-  <si>
-    <t>[[614 410]
- [414 907]]</t>
-  </si>
-  <si>
-    <t>[[857 167]
- [520 801]]</t>
-  </si>
-  <si>
-    <t>[[782 242]
- [452 869]]</t>
+ [ 96 172]]</t>
+  </si>
+  <si>
+    <t>[[ 79  94]
+ [ 36 232]]</t>
+  </si>
+  <si>
+    <t>[[ 91  82]
+ [114 154]]</t>
+  </si>
+  <si>
+    <t>[[ 796  228]
+ [ 317 1004]]</t>
+  </si>
+  <si>
+    <t>[[746 278]
+ [323 998]]</t>
+  </si>
+  <si>
+    <t>[[692 332]
+ [432 889]]</t>
+  </si>
+  <si>
+    <t>[[ 731  293]
+ [ 311 1010]]</t>
+  </si>
+  <si>
+    <t>[[847 177]
+ [413 908]]</t>
+  </si>
+  <si>
+    <t>[[769 255]
+ [345 976]]</t>
+  </si>
+  <si>
+    <t>[[735 289]
+ [397 924]]</t>
   </si>
   <si>
     <t>[[630 394]
- [485 836]]</t>
-  </si>
-  <si>
-    <t>[[518 506]
- [533 788]]</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.7586980920314254, 'recall': 0.7943595769682726, 'f1-score': 0.7761194029850745, 'support': 851.0}, 'NonFlaky': {'precision': 0.8272458045409674, 'recall': 0.7958214624881291, 'f1-score': 0.8112294288480155, 'support': 1053.0}, 'accuracy': 0.7951680672268907, 'macro avg': {'precision': 0.7929719482861963, 'recall': 0.7950905197282009, 'f1-score': 0.793674415916545, 'support': 1904.0}, 'weighted avg': {'precision': 0.7966081452207887, 'recall': 0.7951680672268907, 'f1-score': 0.7955368700195687, 'support': 1904.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.762545899632803, 'recall': 0.7320799059929495, 'f1-score': 0.7470023980815347, 'support': 851.0}, 'NonFlaky': {'precision': 0.7902483900643974, 'recall': 0.8157644824311491, 'f1-score': 0.8028037383177571, 'support': 1053.0}, 'accuracy': 0.7783613445378151, 'macro avg': {'precision': 0.7763971448486002, 'recall': 0.7739221942120493, 'f1-score': 0.7749030681996458, 'support': 1904.0}, 'weighted avg': {'precision': 0.7778666572086794, 'recall': 0.7783613445378151, 'f1-score': 0.7778631182857061, 'support': 1904.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6256627783669141, 'recall': 0.6933019976498237, 'f1-score': 0.6577480490523968, 'support': 851.0}, 'NonFlaky': {'precision': 0.72840790842872, 'recall': 0.6647673314339981, 'f1-score': 0.6951340615690169, 'support': 1053.0}, 'accuracy': 0.6775210084033614, 'macro avg': {'precision': 0.6770353433978171, 'recall': 0.679034664541911, 'f1-score': 0.6764410553107069, 'support': 1904.0}, 'weighted avg': {'precision': 0.6824855840155915, 'recall': 0.6775210084033614, 'f1-score': 0.678424241899036, 'support': 1904.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.7246376811594203, 'recall': 0.8225616921269095, 'f1-score': 0.7705008255365988, 'support': 851.0}, 'NonFlaky': {'precision': 0.8390191897654584, 'recall': 0.7473884140550807, 'f1-score': 0.7905575087895529, 'support': 1053.0}, 'accuracy': 0.7809873949579832, 'macro avg': {'precision': 0.7818284354624394, 'recall': 0.7849750530909951, 'f1-score': 0.7805291671630759, 'support': 1904.0}, 'weighted avg': {'precision': 0.7878959419588731, 'recall': 0.7809873949579832, 'f1-score': 0.7815930983650445, 'support': 1904.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.707193515704154, 'recall': 0.8202115158636898, 'f1-score': 0.7595212187159956, 'support': 851.0}, 'NonFlaky': {'precision': 0.8331515812431843, 'recall': 0.7255460588793922, 'f1-score': 0.7756345177664975, 'support': 1053.0}, 'accuracy': 0.7678571428571429, 'macro avg': {'precision': 0.7701725484736692, 'recall': 0.772878787371541, 'f1-score': 0.7675778682412466, 'support': 1904.0}, 'weighted avg': {'precision': 0.7768541475385021, 'recall': 0.7678571428571429, 'f1-score': 0.7684326178232322, 'support': 1904.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.8016528925619835, 'recall': 0.7978848413631022, 'f1-score': 0.7997644287396937, 'support': 851.0}, 'NonFlaky': {'precision': 0.8372753074739829, 'recall': 0.8404558404558404, 'f1-score': 0.8388625592417062, 'support': 1053.0}, 'accuracy': 0.8214285714285714, 'macro avg': {'precision': 0.8194641000179832, 'recall': 0.8191703409094713, 'f1-score': 0.8193134939906999, 'support': 1904.0}, 'weighted avg': {'precision': 0.8213537344224537, 'recall': 0.8214285714285714, 'f1-score': 0.8213875019637584, 'support': 1904.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.73125, 'recall': 0.8249118683901293, 'f1-score': 0.7752622860298177, 'support': 851.0}, 'NonFlaky': {'precision': 0.8421610169491526, 'recall': 0.7549857549857549, 'f1-score': 0.7961942914371557, 'support': 1053.0}, 'accuracy': 0.7862394957983193, 'macro avg': {'precision': 0.7867055084745762, 'recall': 0.7899488116879421, 'f1-score': 0.7857282887334867, 'support': 1904.0}, 'weighted avg': {'precision': 0.7925889185123203, 'recall': 0.7862394957983193, 'f1-score': 0.7868386524657037, 'support': 1904.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.5271049596309112, 'recall': 0.5370152761457109, 'f1-score': 0.5320139697322468, 'support': 851.0}, 'NonFlaky': {'precision': 0.6200578592092575, 'recall': 0.610636277302944, 'f1-score': 0.615311004784689, 'support': 1053.0}, 'accuracy': 0.5777310924369747, 'macro avg': {'precision': 0.5735814094200844, 'recall': 0.5738257767243274, 'f1-score': 0.5736624872584679, 'support': 1904.0}, 'weighted avg': {'precision': 0.5785122092401542, 'recall': 0.5777310924369747, 'f1-score': 0.578081079979212, 'support': 1904.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.7417218543046358, 'recall': 0.9911504424778761, 'f1-score': 0.8484848484848485, 'support': 113.0}, 'NonFlaky': {'precision': 0.9830508474576272, 'recall': 0.5979381443298969, 'f1-score': 0.7435897435897435, 'support': 97.0}, 'accuracy': 0.8095238095238095, 'macro avg': {'precision': 0.8623863508811315, 'recall': 0.7945442934038864, 'f1-score': 0.796037296037296, 'support': 210.0}, 'weighted avg': {'precision': 0.8531928654276842, 'recall': 0.8095238095238095, 'f1-score': 0.8000333000333001, 'support': 210.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6992481203007519, 'recall': 0.8230088495575221, 'f1-score': 0.7560975609756098, 'support': 113.0}, 'NonFlaky': {'precision': 0.7402597402597403, 'recall': 0.5876288659793815, 'f1-score': 0.6551724137931034, 'support': 97.0}, 'accuracy': 0.7142857142857143, 'macro avg': {'precision': 0.719753930280246, 'recall': 0.7053188577684517, 'f1-score': 0.7056349873843566, 'support': 210.0}, 'weighted avg': {'precision': 0.7181915828532369, 'recall': 0.7142857142857143, 'f1-score': 0.7094797548960712, 'support': 210.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.8113207547169812, 'recall': 0.7610619469026548, 'f1-score': 0.7853881278538813, 'support': 113.0}, 'NonFlaky': {'precision': 0.7403846153846154, 'recall': 0.7938144329896907, 'f1-score': 0.7661691542288558, 'support': 97.0}, 'accuracy': 0.7761904761904762, 'macro avg': {'precision': 0.7758526850507983, 'recall': 0.7774381899461728, 'f1-score': 0.7757786410413685, 'support': 210.0}, 'weighted avg': {'precision': 0.7785550141682217, 'recall': 0.7761904761904762, 'f1-score': 0.77651079241756, 'support': 210.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.7032258064516129, 'recall': 0.9646017699115044, 'f1-score': 0.8134328358208955, 'support': 113.0}, 'NonFlaky': {'precision': 0.9272727272727272, 'recall': 0.5257731958762887, 'f1-score': 0.6710526315789473, 'support': 97.0}, 'accuracy': 0.7619047619047619, 'macro avg': {'precision': 0.81524926686217, 'recall': 0.7451874828938965, 'f1-score': 0.7422427336999214, 'support': 210.0}, 'weighted avg': {'precision': 0.8067141460689847, 'recall': 0.7619047619047619, 'f1-score': 0.7476667414805672, 'support': 210.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.7622377622377622, 'recall': 0.9646017699115044, 'f1-score': 0.8515625, 'support': 113.0}, 'NonFlaky': {'precision': 0.9402985074626866, 'recall': 0.6494845360824743, 'f1-score': 0.7682926829268293, 'support': 97.0}, 'accuracy': 0.819047619047619, 'macro avg': {'precision': 0.8512681348502245, 'recall': 0.8070431529969893, 'f1-score': 0.8099275914634146, 'support': 210.0}, 'weighted avg': {'precision': 0.8444848683654654, 'recall': 0.819047619047619, 'f1-score': 0.813099774970964, 'support': 210.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.8222222222222222, 'recall': 0.9823008849557522, 'f1-score': 0.8951612903225806, 'support': 113.0}, 'NonFlaky': {'precision': 0.9733333333333334, 'recall': 0.7525773195876289, 'f1-score': 0.8488372093023255, 'support': 97.0}, 'accuracy': 0.8761904761904762, 'macro avg': {'precision': 0.8977777777777778, 'recall': 0.8674391022716905, 'f1-score': 0.8719992498124531, 'support': 210.0}, 'weighted avg': {'precision': 0.892021164021164, 'recall': 0.8761904761904762, 'f1-score': 0.8737639767084628, 'support': 210.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.7482517482517482, 'recall': 0.9469026548672567, 'f1-score': 0.8359375, 'support': 113.0}, 'NonFlaky': {'precision': 0.9104477611940298, 'recall': 0.6288659793814433, 'f1-score': 0.7439024390243902, 'support': 97.0}, 'accuracy': 0.8, 'macro avg': {'precision': 0.829349754722889, 'recall': 0.7878843171243499, 'f1-score': 0.7899199695121951, 'support': 210.0}, 'weighted avg': {'precision': 0.8231708589917545, 'recall': 0.8, 'f1-score': 0.7934260670731708, 'support': 210.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6909090909090909, 'recall': 0.672566371681416, 'f1-score': 0.6816143497757847, 'support': 113.0}, 'NonFlaky': {'precision': 0.63, 'recall': 0.6494845360824743, 'f1-score': 0.6395939086294417, 'support': 97.0}, 'accuracy': 0.6619047619047619, 'macro avg': {'precision': 0.6604545454545454, 'recall': 0.6610254538819451, 'f1-score': 0.6606041292026132, 'support': 210.0}, 'weighted avg': {'precision': 0.6627748917748918, 'recall': 0.6619047619047619, 'f1-score': 0.66220490791295, 'support': 210.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 1.0, 'recall': 0.65, 'f1-score': 0.787878787878788, 'support': 20.0}, 'NonFlaky': {'precision': 0.8923076923076924, 'recall': 1.0, 'f1-score': 0.9430894308943091, 'support': 58.0}, 'accuracy': 0.9102564102564102, 'macro avg': {'precision': 0.9461538461538461, 'recall': 0.825, 'f1-score': 0.8654841093865485, 'support': 78.0}, 'weighted avg': {'precision': 0.9199211045364891, 'recall': 0.9102564102564102, 'f1-score': 0.9032918301210986, 'support': 78.0}}</t>
+ [415 906]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8209658421672555, 'recall': 0.8190364277320799, 'f1-score': 0.8200000000000001, 'support': 851.0}, 'NonFlaky': {'precision': 0.8540284360189574, 'recall': 0.855650522317189, 'f1-score': 0.8548387096774194, 'support': 1053.0}, 'accuracy': 0.8392857142857143, 'macro avg': {'precision': 0.8374971390931065, 'recall': 0.8373434750246345, 'f1-score': 0.8374193548387097, 'support': 1904.0}, 'weighted avg': {'precision': 0.8392509846703239, 'recall': 0.8392857142857143, 'f1-score': 0.839267416644077, 'support': 1904.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8192019950124688, 'recall': 0.7720329024676851, 'f1-score': 0.7949183303085301, 'support': 851.0}, 'NonFlaky': {'precision': 0.8239564428312159, 'recall': 0.862298195631529, 'f1-score': 0.8426914153132251, 'support': 1053.0}, 'accuracy': 0.821953781512605, 'macro avg': {'precision': 0.8215792189218424, 'recall': 0.817165549049607, 'f1-score': 0.8188048728108777, 'support': 1904.0}, 'weighted avg': {'precision': 0.8218314243996225, 'recall': 0.821953781512605, 'f1-score': 0.8213390543158535, 'support': 1904.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7421875, 'recall': 0.781433607520564, 'f1-score': 0.7613050944476245, 'support': 851.0}, 'NonFlaky': {'precision': 0.8154761904761905, 'recall': 0.7806267806267806, 'f1-score': 0.7976710334788937, 'support': 1053.0}, 'accuracy': 0.7809873949579832, 'macro avg': {'precision': 0.7788318452380952, 'recall': 0.7810301940736724, 'f1-score': 0.7794880639632591, 'support': 1904.0}, 'weighted avg': {'precision': 0.7827195331257503, 'recall': 0.7809873949579832, 'f1-score': 0.7814171395106111, 'support': 1904.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7959183673469388, 'recall': 0.8249118683901293, 'f1-score': 0.8101557991921523, 'support': 851.0}, 'NonFlaky': {'precision': 0.8542074363992173, 'recall': 0.8290598290598291, 'f1-score': 0.8414457831325302, 'support': 1053.0}, 'accuracy': 0.8272058823529411, 'macro avg': {'precision': 0.825062901873078, 'recall': 0.8269858487249793, 'f1-score': 0.8258007911623413, 'support': 1904.0}, 'weighted avg': {'precision': 0.8281549165654521, 'recall': 0.8272058823529411, 'f1-score': 0.8274606064869094, 'support': 1904.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7659115426105717, 'recall': 0.8343125734430082, 'f1-score': 0.7986501687289089, 'support': 851.0}, 'NonFlaky': {'precision': 0.8556806550665302, 'recall': 0.7939221272554606, 'f1-score': 0.8236453201970443, 'support': 1053.0}, 'accuracy': 0.8119747899159664, 'macro avg': {'precision': 0.810796098838551, 'recall': 0.8141173503492345, 'f1-score': 0.8111477444629767, 'support': 1904.0}, 'weighted avg': {'precision': 0.8155580107913093, 'recall': 0.8119747899159664, 'f1-score': 0.8124736427288809, 'support': 1904.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.863013698630137, 'recall': 0.8143360752056404, 'f1-score': 0.837968561064087, 'support': 851.0}, 'NonFlaky': {'precision': 0.8564940962761126, 'recall': 0.8955365622032289, 'f1-score': 0.8755803156917363, 'support': 1053.0}, 'accuracy': 0.8592436974789915, 'macro avg': {'precision': 0.8597538974531248, 'recall': 0.8549363187044347, 'f1-score': 0.8567744383779117, 'support': 1904.0}, 'weighted avg': {'precision': 0.8594080572022023, 'recall': 0.8592436974789915, 'f1-score': 0.8587695997315843, 'support': 1904.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8472727272727273, 'recall': 0.8213866039952996, 'f1-score': 0.8341288782816229, 'support': 851.0}, 'NonFlaky': {'precision': 0.8591288229842446, 'recall': 0.8803418803418803, 'f1-score': 0.8696060037523452, 'support': 1053.0}, 'accuracy': 0.8539915966386554, 'macro avg': {'precision': 0.853200775128486, 'recall': 0.8508642421685899, 'f1-score': 0.851867441016984, 'support': 1904.0}, 'weighted avg': {'precision': 0.8538296961720065, 'recall': 0.8539915966386554, 'f1-score': 0.8537493683660087, 'support': 1904.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5545556805399325, 'recall': 0.5793184488836662, 'f1-score': 0.5666666666666667, 'support': 851.0}, 'NonFlaky': {'precision': 0.6472906403940887, 'recall': 0.6239316239316239, 'f1-score': 0.6353965183752417, 'support': 1053.0}, 'accuracy': 0.6039915966386554, 'macro avg': {'precision': 0.6009231604670107, 'recall': 0.6016250364076451, 'f1-score': 0.6010315925209542, 'support': 1904.0}, 'weighted avg': {'precision': 0.605842399408854, 'recall': 0.6039915966386554, 'f1-score': 0.6046774512512936, 'support': 1904.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8296296296296296, 'recall': 0.9911504424778761, 'f1-score': 0.9032258064516129, 'support': 113.0}, 'NonFlaky': {'precision': 0.9866666666666667, 'recall': 0.7628865979381443, 'f1-score': 0.8604651162790696, 'support': 97.0}, 'accuracy': 0.8857142857142857, 'macro avg': {'precision': 0.9081481481481481, 'recall': 0.8770185202080102, 'f1-score': 0.8818454613653413, 'support': 210.0}, 'weighted avg': {'precision': 0.9021657848324516, 'recall': 0.8857142857142857, 'f1-score': 0.8834744400385811, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8135593220338984, 'recall': 0.8495575221238938, 'f1-score': 0.8311688311688311, 'support': 113.0}, 'NonFlaky': {'precision': 0.8152173913043478, 'recall': 0.7731958762886598, 'f1-score': 0.7936507936507937, 'support': 97.0}, 'accuracy': 0.8142857142857143, 'macro avg': {'precision': 0.814388356669123, 'recall': 0.8113766992062768, 'f1-score': 0.8124098124098125, 'support': 210.0}, 'weighted avg': {'precision': 0.8143251921254869, 'recall': 0.8142857142857143, 'f1-score': 0.8138390709819281, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8818181818181818, 'recall': 0.8584070796460177, 'f1-score': 0.8699551569506726, 'support': 113.0}, 'NonFlaky': {'precision': 0.84, 'recall': 0.865979381443299, 'f1-score': 0.8527918781725888, 'support': 97.0}, 'accuracy': 0.861904761904762, 'macro avg': {'precision': 0.8609090909090908, 'recall': 0.8621932305446584, 'f1-score': 0.8613735175616307, 'support': 210.0}, 'weighted avg': {'precision': 0.8625021645021645, 'recall': 0.861904761904762, 'f1-score': 0.8620273567531767, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8372093023255814, 'recall': 0.9557522123893806, 'f1-score': 0.8925619834710744, 'support': 113.0}, 'NonFlaky': {'precision': 0.9382716049382716, 'recall': 0.7835051546391752, 'f1-score': 0.8539325842696628, 'support': 97.0}, 'accuracy': 0.8761904761904762, 'macro avg': {'precision': 0.8877404536319264, 'recall': 0.8696286835142779, 'f1-score': 0.8732472838703687, 'support': 210.0}, 'weighted avg': {'precision': 0.883890461151443, 'recall': 0.8761904761904762, 'f1-score': 0.8747188800304224, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.835820895522388, 'recall': 0.9911504424778761, 'f1-score': 0.9068825910931174, 'support': 113.0}, 'NonFlaky': {'precision': 0.9868421052631579, 'recall': 0.7731958762886598, 'f1-score': 0.8670520231213872, 'support': 97.0}, 'accuracy': 0.8904761904761904, 'macro avg': {'precision': 0.9113315003927729, 'recall': 0.882173159383268, 'f1-score': 0.8869673071072524, 'support': 210.0}, 'weighted avg': {'precision': 0.9055783114502673, 'recall': 0.8904761904761904, 'f1-score': 0.888484662077604, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8951612903225806, 'recall': 0.9823008849557522, 'f1-score': 0.9367088607594938, 'support': 113.0}, 'NonFlaky': {'precision': 0.9767441860465116, 'recall': 0.865979381443299, 'f1-score': 0.9180327868852459, 'support': 97.0}, 'accuracy': 0.9285714285714286, 'macro avg': {'precision': 0.935952738184546, 'recall': 0.9241401331995256, 'f1-score': 0.9273708238223699, 'support': 210.0}, 'weighted avg': {'precision': 0.932844818347444, 'recall': 0.9285714285714286, 'f1-score': 0.9280822933032935, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8695652173913043, 'recall': 0.8849557522123894, 'f1-score': 0.8771929824561404, 'support': 113.0}, 'NonFlaky': {'precision': 0.8631578947368421, 'recall': 0.845360824742268, 'f1-score': 0.8541666666666666, 'support': 97.0}, 'accuracy': 0.8666666666666667, 'macro avg': {'precision': 0.8663615560640732, 'recall': 0.8651582884773288, 'f1-score': 0.8656798245614035, 'support': 210.0}, 'weighted avg': {'precision': 0.866605644546148, 'recall': 0.8666666666666667, 'f1-score': 0.8665570175438596, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.826530612244898, 'recall': 0.7168141592920354, 'f1-score': 0.7677725118483414, 'support': 113.0}, 'NonFlaky': {'precision': 0.7142857142857143, 'recall': 0.8247422680412371, 'f1-score': 0.7655502392344499, 'support': 97.0}, 'accuracy': 0.7666666666666667, 'macro avg': {'precision': 0.7704081632653061, 'recall': 0.7707782136666362, 'f1-score': 0.7666613755413956, 'support': 210.0}, 'weighted avg': {'precision': 0.774684159378037, 'recall': 0.7666666666666667, 'f1-score': 0.7667460335457343, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 1.0, 'recall': 0.85, 'f1-score': 0.9189189189189189, 'support': 20.0}, 'NonFlaky': {'precision': 0.9508196721311475, 'recall': 1.0, 'f1-score': 0.9747899159663865, 'support': 58.0}, 'accuracy': 0.9615384615384616, 'macro avg': {'precision': 0.9754098360655737, 'recall': 0.925, 'f1-score': 0.9468544174426528, 'support': 78.0}, 'weighted avg': {'precision': 0.9634300126103403, 'recall': 0.9615384615384616, 'f1-score': 0.9604640192875488, 'support': 78.0}}</t>
   </si>
   <si>
     <t>{'Flaky': {'precision': 0.8235294117647058, 'recall': 0.7, 'f1-score': 0.7567567567567567, 'support': 20.0}, 'NonFlaky': {'precision': 0.9016393442622951, 'recall': 0.9482758620689655, 'f1-score': 0.9243697478991596, 'support': 58.0}, 'accuracy': 0.8846153846153846, 'macro avg': {'precision': 0.8625843780135005, 'recall': 0.8241379310344827, 'f1-score': 0.8405632523279581, 'support': 78.0}, 'weighted avg': {'precision': 0.8816111564424005, 'recall': 0.8846153846153846, 'f1-score': 0.881392057862646, 'support': 78.0}}</t>
   </si>
   <si>
-    <t>{'Flaky': {'precision': 0.5588235294117647, 'recall': 0.95, 'f1-score': 0.7037037037037037, 'support': 20.0}, 'NonFlaky': {'precision': 0.9772727272727273, 'recall': 0.7413793103448276, 'f1-score': 0.8431372549019609, 'support': 58.0}, 'accuracy': 0.7948717948717948, 'macro avg': {'precision': 0.768048128342246, 'recall': 0.8456896551724138, 'f1-score': 0.7734204793028323, 'support': 78.0}, 'weighted avg': {'precision': 0.8699780611545318, 'recall': 0.7948717948717948, 'f1-score': 0.8073850622870231, 'support': 78.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.8333333333333334, 'recall': 0.5, 'f1-score': 0.625, 'support': 20.0}, 'NonFlaky': {'precision': 0.8484848484848485, 'recall': 0.9655172413793104, 'f1-score': 0.9032258064516129, 'support': 58.0}, 'accuracy': 0.8461538461538461, 'macro avg': {'precision': 0.8409090909090909, 'recall': 0.7327586206896552, 'f1-score': 0.7641129032258065, 'support': 78.0}, 'weighted avg': {'precision': 0.8445998445998446, 'recall': 0.8461538461538461, 'f1-score': 0.8318858560794044, 'support': 78.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 1.0, 'recall': 0.2, 'f1-score': 0.33333333333333337, 'support': 20.0}, 'NonFlaky': {'precision': 0.7837837837837838, 'recall': 1.0, 'f1-score': 0.8787878787878788, 'support': 58.0}, 'accuracy': 0.7948717948717948, 'macro avg': {'precision': 0.8918918918918919, 'recall': 0.6, 'f1-score': 0.6060606060606061, 'support': 78.0}, 'weighted avg': {'precision': 0.8392238392238391, 'recall': 0.7948717948717948, 'f1-score': 0.738927738927739, 'support': 78.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 1.0, 'recall': 0.6, 'f1-score': 0.7499999999999999, 'support': 20.0}, 'NonFlaky': {'precision': 0.8787878787878788, 'recall': 1.0, 'f1-score': 0.9354838709677419, 'support': 58.0}, 'accuracy': 0.8974358974358975, 'macro avg': {'precision': 0.9393939393939394, 'recall': 0.8, 'f1-score': 0.8427419354838709, 'support': 78.0}, 'weighted avg': {'precision': 0.9098679098679099, 'recall': 0.8974358974358975, 'f1-score': 0.8879239040529362, 'support': 78.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 1.0, 'recall': 0.85, 'f1-score': 0.9189189189189189, 'support': 20.0}, 'NonFlaky': {'precision': 0.9508196721311475, 'recall': 1.0, 'f1-score': 0.9747899159663865, 'support': 58.0}, 'accuracy': 0.9615384615384616, 'macro avg': {'precision': 0.9754098360655737, 'recall': 0.925, 'f1-score': 0.9468544174426528, 'support': 78.0}, 'weighted avg': {'precision': 0.9634300126103403, 'recall': 0.9615384615384616, 'f1-score': 0.9604640192875488, 'support': 78.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.3448275862068966, 'recall': 0.5, 'f1-score': 0.40816326530612246, 'support': 20.0}, 'NonFlaky': {'precision': 0.7959183673469388, 'recall': 0.6724137931034483, 'f1-score': 0.7289719626168225, 'support': 58.0}, 'accuracy': 0.6282051282051282, 'macro avg': {'precision': 0.5703729767769177, 'recall': 0.5862068965517242, 'f1-score': 0.5685676139614725, 'support': 78.0}, 'weighted avg': {'precision': 0.6802540644905176, 'recall': 0.6282051282051282, 'f1-score': 0.6467133222807455, 'support': 78.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.4146341463414634, 'recall': 0.85, 'f1-score': 0.5573770491803278, 'support': 20.0}, 'NonFlaky': {'precision': 0.9387755102040817, 'recall': 0.6571428571428571, 'f1-score': 0.773109243697479, 'support': 70.0}, 'accuracy': 0.7, 'macro avg': {'precision': 0.6767048282727726, 'recall': 0.7535714285714286, 'f1-score': 0.6652431464389035, 'support': 90.0}, 'weighted avg': {'precision': 0.8222996515679444, 'recall': 0.7, 'f1-score': 0.7251687560270009, 'support': 90.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.41379310344827586, 'recall': 0.6, 'f1-score': 0.4897959183673469, 'support': 20.0}, 'NonFlaky': {'precision': 0.8688524590163934, 'recall': 0.7571428571428571, 'f1-score': 0.8091603053435115, 'support': 70.0}, 'accuracy': 0.7222222222222222, 'macro avg': {'precision': 0.6413227812323347, 'recall': 0.6785714285714286, 'f1-score': 0.6494781118554291, 'support': 90.0}, 'weighted avg': {'precision': 0.767728157779034, 'recall': 0.7222222222222222, 'f1-score': 0.7381904415710304, 'support': 90.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.8333333333333334, 'recall': 0.5, 'f1-score': 0.625, 'support': 20.0}, 'NonFlaky': {'precision': 0.8717948717948718, 'recall': 0.9714285714285714, 'f1-score': 0.9189189189189189, 'support': 70.0}, 'accuracy': 0.8666666666666667, 'macro avg': {'precision': 0.8525641025641026, 'recall': 0.7357142857142858, 'f1-score': 0.7719594594594594, 'support': 90.0}, 'weighted avg': {'precision': 0.8632478632478633, 'recall': 0.8666666666666667, 'f1-score': 0.8536036036036035, 'support': 90.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6666666666666666, 'recall': 0.2, 'f1-score': 0.30769230769230765, 'support': 20.0}, 'NonFlaky': {'precision': 0.8095238095238095, 'recall': 0.9714285714285714, 'f1-score': 0.8831168831168832, 'support': 70.0}, 'accuracy': 0.8, 'macro avg': {'precision': 0.7380952380952381, 'recall': 0.5857142857142857, 'f1-score': 0.5954045954045954, 'support': 90.0}, 'weighted avg': {'precision': 0.7777777777777778, 'recall': 0.8, 'f1-score': 0.7552447552447552, 'support': 90.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.25, 'recall': 1.0, 'f1-score': 0.4, 'support': 20.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.14285714285714285, 'f1-score': 0.25, 'support': 70.0}, 'accuracy': 0.3333333333333333, 'macro avg': {'precision': 0.625, 'recall': 0.5714285714285714, 'f1-score': 0.325, 'support': 90.0}, 'weighted avg': {'precision': 0.8333333333333334, 'recall': 0.3333333333333333, 'f1-score': 0.2833333333333333, 'support': 90.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.5862068965517241, 'recall': 0.85, 'f1-score': 0.6938775510204082, 'support': 20.0}, 'NonFlaky': {'precision': 0.9508196721311475, 'recall': 0.8285714285714286, 'f1-score': 0.885496183206107, 'support': 70.0}, 'accuracy': 0.8333333333333334, 'macro avg': {'precision': 0.7685132843414357, 'recall': 0.8392857142857143, 'f1-score': 0.7896868671132575, 'support': 90.0}, 'weighted avg': {'precision': 0.8697946108912755, 'recall': 0.8333333333333334, 'f1-score': 0.8429142649426182, 'support': 90.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 1.0, 'recall': 0.5, 'f1-score': 0.6666666666666666, 'support': 20.0}, 'NonFlaky': {'precision': 0.875, 'recall': 1.0, 'f1-score': 0.9333333333333333, 'support': 70.0}, 'accuracy': 0.8888888888888888, 'macro avg': {'precision': 0.9375, 'recall': 0.75, 'f1-score': 0.8, 'support': 90.0}, 'weighted avg': {'precision': 0.9027777777777778, 'recall': 0.8888888888888888, 'f1-score': 0.874074074074074, 'support': 90.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.27419354838709675, 'recall': 0.85, 'f1-score': 0.4146341463414634, 'support': 20.0}, 'NonFlaky': {'precision': 0.8928571428571429, 'recall': 0.35714285714285715, 'f1-score': 0.5102040816326532, 'support': 70.0}, 'accuracy': 0.4666666666666667, 'macro avg': {'precision': 0.5835253456221199, 'recall': 0.6035714285714285, 'f1-score': 0.46241911398705826, 'support': 90.0}, 'weighted avg': {'precision': 0.7553763440860215, 'recall': 0.4666666666666667, 'f1-score': 0.48896631823461106, 'support': 90.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.7574750830564784, 'recall': 0.7871116225546605, 'f1-score': 0.7720090293453724, 'support': 869.0}, 'NonFlaky': {'precision': 0.8258003766478342, 'recall': 0.8001824817518248, 'f1-score': 0.8127896200185357, 'support': 1096.0}, 'accuracy': 0.7944020356234097, 'macro avg': {'precision': 0.7916377298521563, 'recall': 0.7936470521532426, 'f1-score': 0.7923993246819541, 'support': 1965.0}, 'weighted avg': {'precision': 0.7955842544438197, 'recall': 0.7944020356234097, 'f1-score': 0.7947548448048061, 'support': 1965.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.7264673311184939, 'recall': 0.7548906789413119, 'f1-score': 0.7404063205417608, 'support': 869.0}, 'NonFlaky': {'precision': 0.7994350282485876, 'recall': 0.7746350364963503, 'f1-score': 0.7868396663577386, 'support': 1096.0}, 'accuracy': 0.7659033078880407, 'macro avg': {'precision': 0.7629511796835408, 'recall': 0.7647628577188311, 'f1-score': 0.7636229934497497, 'support': 1965.0}, 'weighted avg': {'precision': 0.7671658532836759, 'recall': 0.7659033078880407, 'f1-score': 0.7663050213124029, 'support': 1965.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.611764705882353, 'recall': 0.6582278481012658, 'f1-score': 0.6341463414634146, 'support': 869.0}, 'NonFlaky': {'precision': 0.7116504854368932, 'recall': 0.6687956204379562, 'f1-score': 0.6895578551269991, 'support': 1096.0}, 'accuracy': 0.6641221374045801, 'macro avg': {'precision': 0.6617075956596231, 'recall': 0.663511734269611, 'f1-score': 0.6618520982952069, 'support': 1965.0}, 'weighted avg': {'precision': 0.6674770796186258, 'recall': 0.6641221374045801, 'f1-score': 0.6650527124432053, 'support': 1965.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.7054263565891473, 'recall': 0.7330264672036824, 'f1-score': 0.718961625282167, 'support': 869.0}, 'NonFlaky': {'precision': 0.7815442561205274, 'recall': 0.7572992700729927, 'f1-score': 0.7692307692307693, 'support': 1096.0}, 'accuracy': 0.7465648854961832, 'macro avg': {'precision': 0.7434853063548373, 'recall': 0.7451628686383376, 'f1-score': 0.7440961972564681, 'support': 1965.0}, 'weighted avg': {'precision': 0.7478819382107211, 'recall': 0.7465648854961832, 'f1-score': 0.7469997839425578, 'support': 1965.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6988304093567251, 'recall': 0.8250863060989643, 'f1-score': 0.7567282321899736, 'support': 869.0}, 'NonFlaky': {'precision': 0.838125665601704, 'recall': 0.718065693430657, 'f1-score': 0.7734643734643735, 'support': 1096.0}, 'accuracy': 0.7653944020356234, 'macro avg': {'precision': 0.7684780374792146, 'recall': 0.7715759997648106, 'f1-score': 0.7650963028271736, 'support': 1965.0}, 'weighted avg': {'precision': 0.7765238449009984, 'recall': 0.7653944020356234, 'f1-score': 0.7660629959745753, 'support': 1965.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.7521739130434782, 'recall': 0.7963176064441887, 'f1-score': 0.7736165455561765, 'support': 869.0}, 'NonFlaky': {'precision': 0.830622009569378, 'recall': 0.791970802919708, 'f1-score': 0.8108360579168613, 'support': 1096.0}, 'accuracy': 0.7938931297709924, 'macro avg': {'precision': 0.7913979613064281, 'recall': 0.7941442046819484, 'f1-score': 0.792226301736519, 'support': 1965.0}, 'weighted avg': {'precision': 0.7959291872380768, 'recall': 0.7938931297709924, 'f1-score': 0.7943761310764363, 'support': 1965.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6740812379110251, 'recall': 0.8020713463751439, 'f1-score': 0.7325275880189175, 'support': 869.0}, 'NonFlaky': {'precision': 0.8152524167561761, 'recall': 0.6925182481751825, 'f1-score': 0.7488899851998027, 'support': 1096.0}, 'accuracy': 0.7409669211195928, 'macro avg': {'precision': 0.7446668273336006, 'recall': 0.7472947972751631, 'f1-score': 0.74070878660936, 'support': 1965.0}, 'weighted avg': {'precision': 0.7528209895722391, 'recall': 0.7409669211195928, 'f1-score': 0.7416538919935995, 'support': 1965.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.5077105575326216, 'recall': 0.49252013808975836, 'f1-score': 0.5000000000000001, 'support': 869.0}, 'NonFlaky': {'precision': 0.606951871657754, 'recall': 0.6213503649635036, 'f1-score': 0.6140667267808837, 'support': 1096.0}, 'accuracy': 0.5643765903307888, 'macro avg': {'precision': 0.5573312145951879, 'recall': 0.556935251526631, 'f1-score': 0.5570333633904418, 'support': 1965.0}, 'weighted avg': {'precision': 0.5630634737062324, 'recall': 0.5643765903307888, 'f1-score': 0.5636219504080654, 'support': 1965.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.7362132352941176, 'recall': 0.8140243902439024, 'f1-score': 0.7731660231660231, 'support': 984.0}, 'NonFlaky': {'precision': 0.8342391304347826, 'recall': 0.7624172185430463, 'f1-score': 0.7967128027681661, 'support': 1208.0}, 'accuracy': 0.7855839416058394, 'macro avg': {'precision': 0.7852261828644501, 'recall': 0.7882208043934744, 'f1-score': 0.7849394129670946, 'support': 2192.0}, 'weighted avg': {'precision': 0.7902348052439002, 'recall': 0.7855839416058394, 'f1-score': 0.7861425330927515, 'support': 2192.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6610767872903796, 'recall': 0.7611788617886179, 'f1-score': 0.7076051015588096, 'support': 984.0}, 'NonFlaky': {'precision': 0.7780925401322002, 'recall': 0.6821192052980133, 'f1-score': 0.7269519188354654, 'support': 1208.0}, 'accuracy': 0.7176094890510949, 'macro avg': {'precision': 0.7195846637112899, 'recall': 0.7216490335433157, 'f1-score': 0.7172785101971375, 'support': 2192.0}, 'weighted avg': {'precision': 0.7255635707907989, 'recall': 0.7176094890510949, 'f1-score': 0.7182670337076236, 'support': 2192.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6356453028972783, 'recall': 0.7357723577235772, 'f1-score': 0.682053697597739, 'support': 984.0}, 'NonFlaky': {'precision': 0.7530864197530864, 'recall': 0.6564569536423841, 'f1-score': 0.7014595311808934, 'support': 1208.0}, 'accuracy': 0.6920620437956204, 'macro avg': {'precision': 0.6943658613251824, 'recall': 0.6961146556829807, 'f1-score': 0.6917566143893162, 'support': 2192.0}, 'weighted avg': {'precision': 0.7003665023324135, 'recall': 0.6920620437956204, 'f1-score': 0.6927481533315212, 'support': 2192.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6551724137931034, 'recall': 0.8109756097560976, 'f1-score': 0.7247956403269755, 'support': 984.0}, 'NonFlaky': {'precision': 0.8090349075975359, 'recall': 0.652317880794702, 'f1-score': 0.7222731439046746, 'support': 1208.0}, 'accuracy': 0.7235401459854015, 'macro avg': {'precision': 0.7321036606953197, 'recall': 0.7316467452753999, 'f1-score': 0.723534392115825, 'support': 2192.0}, 'weighted avg': {'precision': 0.7399652479699986, 'recall': 0.7235401459854015, 'f1-score': 0.7234055054373133, 'support': 2192.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.7055837563451777, 'recall': 0.8475609756097561, 'f1-score': 0.7700831024930749, 'support': 984.0}, 'NonFlaky': {'precision': 0.8514851485148515, 'recall': 0.7119205298013245, 'f1-score': 0.775473399458972, 'support': 1208.0}, 'accuracy': 0.7728102189781022, 'macro avg': {'precision': 0.7785344524300146, 'recall': 0.7797407527055402, 'f1-score': 0.7727782509760235, 'support': 2192.0}, 'weighted avg': {'precision': 0.785989268088319, 'recall': 0.7728102189781022, 'f1-score': 0.7730536676093174, 'support': 2192.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.7036395147313691, 'recall': 0.8252032520325203, 'f1-score': 0.7595884003741815, 'support': 984.0}, 'NonFlaky': {'precision': 0.8342967244701349, 'recall': 0.7168874172185431, 'f1-score': 0.7711487088156724, 'support': 1208.0}, 'accuracy': 0.7655109489051095, 'macro avg': {'precision': 0.7689681196007521, 'recall': 0.7710453346255317, 'f1-score': 0.7653685545949269, 'support': 2192.0}, 'weighted avg': {'precision': 0.7756440354268204, 'recall': 0.7655109489051095, 'f1-score': 0.7659592272890178, 'support': 2192.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6776649746192893, 'recall': 0.8140243902439024, 'f1-score': 0.7396121883656509, 'support': 984.0}, 'NonFlaky': {'precision': 0.8188118811881188, 'recall': 0.6846026490066225, 'f1-score': 0.7457168620378719, 'support': 1208.0}, 'accuracy': 0.7427007299270073, 'macro avg': {'precision': 0.748238427903704, 'recall': 0.7493135196252625, 'f1-score': 0.7426645252017614, 'support': 2192.0}, 'weighted avg': {'precision': 0.7554503136407975, 'recall': 0.7427007299270073, 'f1-score': 0.7429764428346486, 'support': 2192.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.5609195402298851, 'recall': 0.4959349593495935, 'f1-score': 0.5264293419633226, 'support': 984.0}, 'NonFlaky': {'precision': 0.6248108925869894, 'recall': 0.6837748344370861, 'f1-score': 0.6529644268774704, 'support': 1208.0}, 'accuracy': 0.5994525547445255, 'macro avg': {'precision': 0.5928652164084373, 'recall': 0.5898548968933398, 'f1-score': 0.5896968844203965, 'support': 2192.0}, 'weighted avg': {'precision': 0.59612973806172, 'recall': 0.5994525547445255, 'f1-score': 0.5961621807298785, 'support': 2192.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.5568181818181818, 'recall': 0.8497109826589595, 'f1-score': 0.6727688787185354, 'support': 173.0}, 'NonFlaky': {'precision': 0.8531073446327684, 'recall': 0.5634328358208955, 'f1-score': 0.6786516853932585, 'support': 268.0}, 'accuracy': 0.6757369614512472, 'macro avg': {'precision': 0.7049627632254751, 'recall': 0.7065719092399275, 'f1-score': 0.6757102820558969, 'support': 441.0}, 'weighted avg': {'precision': 0.7368759950479078, 'recall': 0.6757369614512472, 'f1-score': 0.6763439176954646, 'support': 441.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.5019762845849802, 'recall': 0.7341040462427746, 'f1-score': 0.5962441314553991, 'support': 173.0}, 'NonFlaky': {'precision': 0.7553191489361702, 'recall': 0.5298507462686567, 'f1-score': 0.6228070175438597, 'support': 268.0}, 'accuracy': 0.6099773242630385, 'macro avg': {'precision': 0.6286477167605753, 'recall': 0.6319773962557156, 'f1-score': 0.6095255744996294, 'support': 441.0}, 'weighted avg': {'precision': 0.6559352134877443, 'recall': 0.6099773242630385, 'f1-score': 0.6123866563345544, 'support': 441.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.4972972972972973, 'recall': 0.5317919075144508, 'f1-score': 0.5139664804469274, 'support': 173.0}, 'NonFlaky': {'precision': 0.68359375, 'recall': 0.6529850746268657, 'f1-score': 0.66793893129771, 'support': 268.0}, 'accuracy': 0.6054421768707483, 'macro avg': {'precision': 0.5904455236486487, 'recall': 0.5923884910706583, 'f1-score': 0.5909527058723187, 'support': 441.0}, 'weighted avg': {'precision': 0.6105114681007537, 'recall': 0.6054421768707483, 'f1-score': 0.6075370401476297, 'support': 441.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.4, 'recall': 0.30057803468208094, 'f1-score': 0.3432343234323433, 'support': 173.0}, 'NonFlaky': {'precision': 0.6109324758842444, 'recall': 0.7089552238805971, 'f1-score': 0.6563039723661486, 'support': 268.0}, 'accuracy': 0.5487528344671202, 'macro avg': {'precision': 0.5054662379421222, 'recall': 0.504766629281339, 'f1-score': 0.4997691478992459, 'support': 441.0}, 'weighted avg': {'precision': 0.5281857223060715, 'recall': 0.5487528344671202, 'f1-score': 0.533489801695971, 'support': 441.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.5, 'recall': 0.9421965317919075, 'f1-score': 0.653306613226453, 'support': 173.0}, 'NonFlaky': {'precision': 0.9130434782608695, 'recall': 0.3917910447761194, 'f1-score': 0.5483028720626631, 'support': 268.0}, 'accuracy': 0.6077097505668935, 'macro avg': {'precision': 0.7065217391304348, 'recall': 0.6669937882840135, 'f1-score': 0.6008047426445581, 'support': 441.0}, 'weighted avg': {'precision': 0.751010549147195, 'recall': 0.6077097505668935, 'f1-score': 0.5894948158752157, 'support': 441.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.5568627450980392, 'recall': 0.8208092485549133, 'f1-score': 0.6635514018691588, 'support': 173.0}, 'NonFlaky': {'precision': 0.8333333333333334, 'recall': 0.5783582089552238, 'f1-score': 0.6828193832599119, 'support': 268.0}, 'accuracy': 0.673469387755102, 'macro avg': {'precision': 0.6950980392156862, 'recall': 0.6995837287550686, 'f1-score': 0.6731853925645354, 'support': 441.0}, 'weighted avg': {'precision': 0.7248766173135921, 'recall': 0.673469387755102, 'f1-score': 0.675260742034061, 'support': 441.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6890243902439024, 'recall': 0.653179190751445, 'f1-score': 0.6706231454005934, 'support': 173.0}, 'NonFlaky': {'precision': 0.7833935018050542, 'recall': 0.8097014925373134, 'f1-score': 0.7963302752293577, 'support': 268.0}, 'accuracy': 0.7482993197278912, 'macro avg': {'precision': 0.7362089460244783, 'recall': 0.7314403416443792, 'f1-score': 0.7334767103149755, 'support': 441.0}, 'weighted avg': {'precision': 0.7463734194919494, 'recall': 0.7482993197278912, 'f1-score': 0.7470165939133119, 'support': 441.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.4391304347826087, 'recall': 0.5838150289017341, 'f1-score': 0.5012406947890818, 'support': 173.0}, 'NonFlaky': {'precision': 0.6587677725118484, 'recall': 0.5186567164179104, 'f1-score': 0.5803757828810021, 'support': 268.0}, 'accuracy': 0.54421768707483, 'macro avg': {'precision': 0.5489491036472285, 'recall': 0.5512358726598223, 'f1-score': 0.5408082388350419, 'support': 441.0}, 'weighted avg': {'precision': 0.5726061865092215, 'recall': 0.54421768707483, 'f1-score': 0.5493318594345119, 'support': 441.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6818181818181818, 'recall': 0.76171875, 'f1-score': 0.7195571955719557, 'support': 1024.0}, 'NonFlaky': {'precision': 0.7968359700249792, 'recall': 0.72445117335352, 'f1-score': 0.7589214908802537, 'support': 1321.0}, 'accuracy': 0.7407249466950959, 'macro avg': {'precision': 0.7393270759215804, 'recall': 0.7430849616767601, 'f1-score': 0.7392393432261047, 'support': 2345.0}, 'weighted avg': {'precision': 0.7466107183730557, 'recall': 0.7407249466950959, 'f1-score': 0.7417321354876324, 'support': 2345.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6141479099678456, 'recall': 0.74609375, 'f1-score': 0.6737213403880071, 'support': 1024.0}, 'NonFlaky': {'precision': 0.7638510445049954, 'recall': 0.6366389099167298, 'f1-score': 0.6944673823286541, 'support': 1321.0}, 'accuracy': 0.6844349680170576, 'macro avg': {'precision': 0.6889994772364205, 'recall': 0.6913663299583649, 'f1-score': 0.6840943613583306, 'support': 2345.0}, 'weighted avg': {'precision': 0.6984796117689437, 'recall': 0.6844349680170576, 'f1-score': 0.6854081298991349, 'support': 2345.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.5932336742722266, 'recall': 0.736328125, 'f1-score': 0.6570806100217865, 'support': 1024.0}, 'NonFlaky': {'precision': 0.7486033519553073, 'recall': 0.6086298258894777, 'f1-score': 0.6713987473903966, 'support': 1321.0}, 'accuracy': 0.6643923240938167, 'macro avg': {'precision': 0.6709185131137669, 'recall': 0.6724789754447389, 'f1-score': 0.6642396787060916, 'support': 2345.0}, 'weighted avg': {'precision': 0.6807574884382604, 'recall': 0.6643923240938167, 'f1-score': 0.6651463923091784, 'support': 2345.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.5972762645914397, 'recall': 0.599609375, 'f1-score': 0.5984405458089668, 'support': 1024.0}, 'NonFlaky': {'precision': 0.6886864085041762, 'recall': 0.6866010598031794, 'f1-score': 0.6876421531463229, 'support': 1321.0}, 'accuracy': 0.6486140724946695, 'macro avg': {'precision': 0.6429813365478079, 'recall': 0.6431052174015897, 'f1-score': 0.6430413494776448, 'support': 2345.0}, 'weighted avg': {'precision': 0.6487699959810879, 'recall': 0.6486140724946695, 'f1-score': 0.6486901506245947, 'support': 2345.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6223674655047204, 'recall': 0.8369140625, 'f1-score': 0.713869221157851, 'support': 1024.0}, 'NonFlaky': {'precision': 0.8274793388429752, 'recall': 0.6063588190764573, 'f1-score': 0.6998689384010486, 'support': 1321.0}, 'accuracy': 0.7070362473347548, 'macro avg': {'precision': 0.7249234021738478, 'recall': 0.7216364407882286, 'f1-score': 0.7068690797794498, 'support': 2345.0}, 'weighted avg': {'precision': 0.7379123630227735, 'recall': 0.7070362473347548, 'f1-score': 0.7059824947093495, 'support': 2345.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.6337115072933549, 'recall': 0.763671875, 'f1-score': 0.6926483613817538, 'support': 1024.0}, 'NonFlaky': {'precision': 0.7821782178217822, 'recall': 0.6578349735049205, 'f1-score': 0.7146381578947367, 'support': 1321.0}, 'accuracy': 0.7040511727078891, 'macro avg': {'precision': 0.7079448625575686, 'recall': 0.7107534242524602, 'f1-score': 0.7036432596382453, 'support': 2345.0}, 'weighted avg': {'precision': 0.7173466990238677, 'recall': 0.7040511727078891, 'f1-score': 0.7050357904622018, 'support': 2345.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.5650224215246636, 'recall': 0.615234375, 'f1-score': 0.5890603085553997, 'support': 1024.0}, 'NonFlaky': {'precision': 0.6796747967479675, 'recall': 0.6328538985616957, 'f1-score': 0.6554292434339476, 'support': 1321.0}, 'accuracy': 0.6251599147121535, 'macro avg': {'precision': 0.6223486091363155, 'recall': 0.6240441367808478, 'f1-score': 0.6222447759946736, 'support': 2345.0}, 'weighted avg': {'precision': 0.6296091113626101, 'recall': 0.6251599147121535, 'f1-score': 0.626447670165021, 'support': 2345.0}}</t>
-  </si>
-  <si>
-    <t>{'Flaky': {'precision': 0.4928639391056137, 'recall': 0.505859375, 'f1-score': 0.4992771084337349, 'support': 1024.0}, 'NonFlaky': {'precision': 0.6089644513137558, 'recall': 0.5965177895533686, 'f1-score': 0.6026768642447419, 'support': 1321.0}, 'accuracy': 0.5569296375266525, 'macro avg': {'precision': 0.5509141952096848, 'recall': 0.5511885822766843, 'f1-score': 0.5509769863392384, 'support': 2345.0}, 'weighted avg': {'precision': 0.5582664024859786, 'recall': 0.5569296375266525, 'f1-score': 0.5575249026453939, 'support': 2345.0}}</t>
+    <t>{'Flaky': {'precision': 0.6333333333333333, 'recall': 0.95, 'f1-score': 0.7599999999999999, 'support': 20.0}, 'NonFlaky': {'precision': 0.9791666666666666, 'recall': 0.8103448275862069, 'f1-score': 0.8867924528301887, 'support': 58.0}, 'accuracy': 0.8461538461538461, 'macro avg': {'precision': 0.8062499999999999, 'recall': 0.8801724137931034, 'f1-score': 0.8233962264150942, 'support': 78.0}, 'weighted avg': {'precision': 0.8904914529914529, 'recall': 0.8461538461538461, 'f1-score': 0.8542815674891145, 'support': 78.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 1.0, 'recall': 0.25, 'f1-score': 0.4, 'support': 20.0}, 'NonFlaky': {'precision': 0.7945205479452054, 'recall': 1.0, 'f1-score': 0.8854961832061068, 'support': 58.0}, 'accuracy': 0.8076923076923077, 'macro avg': {'precision': 0.8972602739726028, 'recall': 0.625, 'f1-score': 0.6427480916030535, 'support': 78.0}, 'weighted avg': {'precision': 0.8472075869336143, 'recall': 0.8076923076923077, 'f1-score': 0.7610099823840282, 'support': 78.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 1.0, 'recall': 0.75, 'f1-score': 0.8571428571428571, 'support': 20.0}, 'NonFlaky': {'precision': 0.9206349206349206, 'recall': 1.0, 'f1-score': 0.9586776859504132, 'support': 58.0}, 'accuracy': 0.9358974358974359, 'macro avg': {'precision': 0.9603174603174602, 'recall': 0.875, 'f1-score': 0.9079102715466352, 'support': 78.0}, 'weighted avg': {'precision': 0.9409849409849409, 'recall': 0.9358974358974359, 'f1-score': 0.9326431144612963, 'support': 78.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 1.0, 'recall': 0.9, 'f1-score': 0.9473684210526316, 'support': 20.0}, 'NonFlaky': {'precision': 0.9666666666666667, 'recall': 1.0, 'f1-score': 0.983050847457627, 'support': 58.0}, 'accuracy': 0.9743589743589743, 'macro avg': {'precision': 0.9833333333333334, 'recall': 0.95, 'f1-score': 0.9652096342551293, 'support': 78.0}, 'weighted avg': {'precision': 0.9752136752136752, 'recall': 0.9743589743589743, 'f1-score': 0.973901507353782, 'support': 78.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.38095238095238093, 'recall': 0.4, 'f1-score': 0.3902439024390244, 'support': 20.0}, 'NonFlaky': {'precision': 0.7894736842105263, 'recall': 0.7758620689655172, 'f1-score': 0.7826086956521741, 'support': 58.0}, 'accuracy': 0.6794871794871795, 'macro avg': {'precision': 0.5852130325814536, 'recall': 0.5879310344827586, 'f1-score': 0.5864262990455993, 'support': 78.0}, 'weighted avg': {'precision': 0.6847246320930532, 'recall': 0.6794871794871795, 'f1-score': 0.682002338418033, 'support': 78.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6428571428571429, 'recall': 0.9, 'f1-score': 0.75, 'support': 20.0}, 'NonFlaky': {'precision': 0.967741935483871, 'recall': 0.8571428571428571, 'f1-score': 0.909090909090909, 'support': 70.0}, 'accuracy': 0.8666666666666667, 'macro avg': {'precision': 0.8052995391705069, 'recall': 0.8785714285714286, 'f1-score': 0.8295454545454545, 'support': 90.0}, 'weighted avg': {'precision': 0.8955453149001538, 'recall': 0.8666666666666667, 'f1-score': 0.8737373737373736, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.75, 'recall': 0.75, 'f1-score': 0.75, 'support': 20.0}, 'NonFlaky': {'precision': 0.9285714285714286, 'recall': 0.9285714285714286, 'f1-score': 0.9285714285714286, 'support': 70.0}, 'accuracy': 0.8888888888888888, 'macro avg': {'precision': 0.8392857142857143, 'recall': 0.8392857142857143, 'f1-score': 0.8392857142857143, 'support': 90.0}, 'weighted avg': {'precision': 0.8888888888888888, 'recall': 0.8888888888888888, 'f1-score': 0.8888888888888888, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9166666666666666, 'recall': 0.55, 'f1-score': 0.6874999999999999, 'support': 20.0}, 'NonFlaky': {'precision': 0.8846153846153846, 'recall': 0.9857142857142858, 'f1-score': 0.9324324324324325, 'support': 70.0}, 'accuracy': 0.8888888888888888, 'macro avg': {'precision': 0.9006410256410255, 'recall': 0.7678571428571429, 'f1-score': 0.8099662162162162, 'support': 90.0}, 'weighted avg': {'precision': 0.8917378917378916, 'recall': 0.8888888888888888, 'f1-score': 0.878003003003003, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.4, 'recall': 0.1, 'f1-score': 0.16000000000000003, 'support': 20.0}, 'NonFlaky': {'precision': 0.788235294117647, 'recall': 0.9571428571428572, 'f1-score': 0.864516129032258, 'support': 70.0}, 'accuracy': 0.7666666666666667, 'macro avg': {'precision': 0.5941176470588235, 'recall': 0.5285714285714286, 'f1-score': 0.512258064516129, 'support': 90.0}, 'weighted avg': {'precision': 0.7019607843137254, 'recall': 0.7666666666666667, 'f1-score': 0.7079569892473119, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.45454545454545453, 'recall': 1.0, 'f1-score': 0.625, 'support': 20.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.6571428571428571, 'f1-score': 0.7931034482758621, 'support': 70.0}, 'accuracy': 0.7333333333333333, 'macro avg': {'precision': 0.7272727272727273, 'recall': 0.8285714285714285, 'f1-score': 0.709051724137931, 'support': 90.0}, 'weighted avg': {'precision': 0.8787878787878788, 'recall': 0.7333333333333333, 'f1-score': 0.7557471264367817, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7391304347826086, 'recall': 0.85, 'f1-score': 0.7906976744186046, 'support': 20.0}, 'NonFlaky': {'precision': 0.9552238805970149, 'recall': 0.9142857142857143, 'f1-score': 0.9343065693430657, 'support': 70.0}, 'accuracy': 0.9, 'macro avg': {'precision': 0.8471771576898117, 'recall': 0.8821428571428571, 'f1-score': 0.8625021218808351, 'support': 90.0}, 'weighted avg': {'precision': 0.9072031148604801, 'recall': 0.9, 'f1-score': 0.9023934815820742, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 1.0, 'recall': 0.4, 'f1-score': 0.5714285714285715, 'support': 20.0}, 'NonFlaky': {'precision': 0.8536585365853658, 'recall': 1.0, 'f1-score': 0.9210526315789475, 'support': 70.0}, 'accuracy': 0.8666666666666667, 'macro avg': {'precision': 0.9268292682926829, 'recall': 0.7, 'f1-score': 0.7462406015037595, 'support': 90.0}, 'weighted avg': {'precision': 0.8861788617886178, 'recall': 0.8666666666666667, 'f1-score': 0.843358395989975, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.4473684210526316, 'recall': 0.85, 'f1-score': 0.5862068965517242, 'support': 20.0}, 'NonFlaky': {'precision': 0.9423076923076923, 'recall': 0.7, 'f1-score': 0.8032786885245902, 'support': 70.0}, 'accuracy': 0.7333333333333333, 'macro avg': {'precision': 0.694838056680162, 'recall': 0.7749999999999999, 'f1-score': 0.6947427925381572, 'support': 90.0}, 'weighted avg': {'precision': 0.8323211875843455, 'recall': 0.7333333333333333, 'f1-score': 0.75504051253062, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8355501813784765, 'recall': 0.7951668584579977, 'f1-score': 0.8148584905660377, 'support': 869.0}, 'NonFlaky': {'precision': 0.843585237258348, 'recall': 0.8759124087591241, 'f1-score': 0.8594449418084155, 'support': 1096.0}, 'accuracy': 0.8402035623409669, 'macro avg': {'precision': 0.8395677093184122, 'recall': 0.835539633608561, 'f1-score': 0.8371517161872266, 'support': 1965.0}, 'weighted avg': {'precision': 0.8400318206885727, 'recall': 0.8402035623409669, 'f1-score': 0.8397270659154759, 'support': 1965.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7702857142857142, 'recall': 0.7756041426927502, 'f1-score': 0.7729357798165137, 'support': 869.0}, 'NonFlaky': {'precision': 0.8211009174311926, 'recall': 0.8166058394160584, 'f1-score': 0.8188472095150959, 'support': 1096.0}, 'accuracy': 0.7984732824427481, 'macro avg': {'precision': 0.7956933158584534, 'recall': 0.7961049910544042, 'f1-score': 0.7958914946658049, 'support': 1965.0}, 'weighted avg': {'precision': 0.7986284433683831, 'recall': 0.7984732824427481, 'f1-score': 0.7985433762285473, 'support': 1965.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7112831858407079, 'recall': 0.7399309551208285, 'f1-score': 0.7253243090806543, 'support': 869.0}, 'NonFlaky': {'precision': 0.7869934024505184, 'recall': 0.7618613138686131, 'f1-score': 0.7742234585071859, 'support': 1096.0}, 'accuracy': 0.7521628498727735, 'macro avg': {'precision': 0.7491382941456132, 'recall': 0.7508961344947208, 'f1-score': 0.7497738837939201, 'support': 1965.0}, 'weighted avg': {'precision': 0.7535113779039916, 'recall': 0.7521628498727735, 'f1-score': 0.7525983384808979, 'support': 1965.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7651869158878505, 'recall': 0.7537399309551208, 'f1-score': 0.7594202898550725, 'support': 869.0}, 'NonFlaky': {'precision': 0.8070333633904418, 'recall': 0.8166058394160584, 'f1-score': 0.8117913832199546, 'support': 1096.0}, 'accuracy': 0.7888040712468194, 'macro avg': {'precision': 0.7861101396391461, 'recall': 0.7851728851855896, 'f1-score': 0.7856058365375136, 'support': 1965.0}, 'weighted avg': {'precision': 0.7885272245203391, 'recall': 0.7888040712468194, 'f1-score': 0.7886308335333986, 'support': 1965.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7525879917184265, 'recall': 0.8365937859608745, 'f1-score': 0.7923705722070844, 'support': 869.0}, 'NonFlaky': {'precision': 0.8578578578578578, 'recall': 0.781934306569343, 'f1-score': 0.8181384248210024, 'support': 1096.0}, 'accuracy': 0.8061068702290076, 'macro avg': {'precision': 0.8052229247881422, 'recall': 0.8092640462651088, 'f1-score': 0.8052544985140434, 'support': 1965.0}, 'weighted avg': {'precision': 0.8113033979722772, 'recall': 0.8061068702290076, 'f1-score': 0.8067428706624808, 'support': 1965.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.813599062133646, 'recall': 0.7986191024165707, 'f1-score': 0.8060394889663183, 'support': 869.0}, 'NonFlaky': {'precision': 0.8426258992805755, 'recall': 0.8549270072992701, 'f1-score': 0.848731884057971, 'support': 1096.0}, 'accuracy': 0.8300254452926209, 'macro avg': {'precision': 0.8281124807071107, 'recall': 0.8267730548579204, 'f1-score': 0.8273856865121446, 'support': 1965.0}, 'weighted avg': {'precision': 0.8297890944558011, 'recall': 0.8300254452926209, 'f1-score': 0.829851634014894, 'support': 1965.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7806524184476941, 'recall': 0.7986191024165707, 'f1-score': 0.7895335608646188, 'support': 869.0}, 'NonFlaky': {'precision': 0.837360594795539, 'recall': 0.8220802919708029, 'f1-score': 0.8296500920810314, 'support': 1096.0}, 'accuracy': 0.811704834605598, 'macro avg': {'precision': 0.8090065066216166, 'recall': 0.8103496971936868, 'f1-score': 0.809591826472825, 'support': 1965.0}, 'weighted avg': {'precision': 0.8122820170620646, 'recall': 0.811704834605598, 'f1-score': 0.811908989980745, 'support': 1965.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5828571428571429, 'recall': 0.5868814729574223, 'f1-score': 0.5848623853211008, 'support': 869.0}, 'NonFlaky': {'precision': 0.6706422018348623, 'recall': 0.666970802919708, 'f1-score': 0.6688014638609332, 'support': 1096.0}, 'accuracy': 0.6315521628498728, 'macro avg': {'precision': 0.6267496723460027, 'recall': 0.6269261379385651, 'f1-score': 0.626831924591017, 'support': 1965.0}, 'weighted avg': {'precision': 0.6318202088314842, 'recall': 0.6315521628498728, 'f1-score': 0.6316803141148191, 'support': 1965.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7666034155597723, 'recall': 0.8211382113821138, 'f1-score': 0.7929342492639843, 'support': 984.0}, 'NonFlaky': {'precision': 0.8453427065026362, 'recall': 0.7963576158940397, 'f1-score': 0.8201193520886616, 'support': 1208.0}, 'accuracy': 0.8074817518248175, 'macro avg': {'precision': 0.8059730610312043, 'recall': 0.8087479136380769, 'f1-score': 0.8065268006763229, 'support': 2192.0}, 'weighted avg': {'precision': 0.8099962364808396, 'recall': 0.8074817518248175, 'f1-score': 0.8079158205286786, 'support': 2192.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7444551591128254, 'recall': 0.7845528455284553, 'f1-score': 0.763978228599703, 'support': 984.0}, 'NonFlaky': {'precision': 0.8164502164502164, 'recall': 0.7806291390728477, 'f1-score': 0.7981379602200591, 'support': 1208.0}, 'accuracy': 0.7823905109489051, 'macro avg': {'precision': 0.780452687781521, 'recall': 0.7825909923006515, 'f1-score': 0.781058094409881, 'support': 2192.0}, 'weighted avg': {'precision': 0.7841312673535044, 'recall': 0.7823905109489051, 'f1-score': 0.7828034821569066, 'support': 2192.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6765704584040747, 'recall': 0.8099593495934959, 'f1-score': 0.7372802960222017, 'support': 984.0}, 'NonFlaky': {'precision': 0.8155818540433925, 'recall': 0.6846026490066225, 'f1-score': 0.7443744374437443, 'support': 1208.0}, 'accuracy': 0.7408759124087592, 'macro avg': {'precision': 0.7460761562237336, 'recall': 0.7472809993000592, 'f1-score': 0.740827366732973, 'support': 2192.0}, 'weighted avg': {'precision': 0.7531789282636987, 'recall': 0.7408759124087592, 'f1-score': 0.7411898411121759, 'support': 2192.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7068645640074211, 'recall': 0.774390243902439, 'f1-score': 0.7390882638215326, 'support': 984.0}, 'NonFlaky': {'precision': 0.800718132854578, 'recall': 0.7384105960264901, 'f1-score': 0.7683031869078379, 'support': 1208.0}, 'accuracy': 0.7545620437956204, 'macro avg': {'precision': 0.7537913484309996, 'recall': 0.7564004199644645, 'f1-score': 0.7536957253646852, 'support': 2192.0}, 'weighted avg': {'precision': 0.7585867862553068, 'recall': 0.7545620437956204, 'f1-score': 0.7551884586610659, 'support': 2192.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7311361665221162, 'recall': 0.8567073170731707, 'f1-score': 0.7889564810481985, 'support': 984.0}, 'NonFlaky': {'precision': 0.8642925890279115, 'recall': 0.7433774834437086, 'f1-score': 0.7992879394748554, 'support': 1208.0}, 'accuracy': 0.7942518248175182, 'macro avg': {'precision': 0.7977143777750139, 'recall': 0.8000424002584396, 'f1-score': 0.794122210261527, 'support': 2192.0}, 'weighted avg': {'precision': 0.804517990603777, 'recall': 0.7942518248175182, 'f1-score': 0.7946500949986555, 'support': 2192.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7432052483598875, 'recall': 0.8058943089430894, 'f1-score': 0.7732813261823501, 'support': 984.0}, 'NonFlaky': {'precision': 0.8302222222222222, 'recall': 0.7731788079470199, 'f1-score': 0.8006858122588941, 'support': 1208.0}, 'accuracy': 0.7878649635036497, 'macro avg': {'precision': 0.7867137352910549, 'recall': 0.7895365584450547, 'f1-score': 0.7869835692206222, 'support': 2192.0}, 'weighted avg': {'precision': 0.791159858043145, 'recall': 0.7878649635036497, 'f1-score': 0.788383798436212, 'support': 2192.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7240773286467487, 'recall': 0.8373983739837398, 'f1-score': 0.7766258246936851, 'support': 984.0}, 'NonFlaky': {'precision': 0.8481973434535104, 'recall': 0.7400662251655629, 'f1-score': 0.7904509283819628, 'support': 1208.0}, 'accuracy': 0.7837591240875912, 'macro avg': {'precision': 0.7861373360501296, 'recall': 0.7887322995746513, 'f1-score': 0.783538376537824, 'support': 2192.0}, 'weighted avg': {'precision': 0.7924792346168984, 'recall': 0.7837591240875912, 'f1-score': 0.784244768697079, 'support': 2192.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6293103448275862, 'recall': 0.5934959349593496, 'f1-score': 0.6108786610878661, 'support': 984.0}, 'NonFlaky': {'precision': 0.6835443037974683, 'recall': 0.7152317880794702, 'f1-score': 0.6990291262135923, 'support': 1208.0}, 'accuracy': 0.6605839416058394, 'macro avg': {'precision': 0.6564273243125273, 'recall': 0.6543638615194098, 'f1-score': 0.6549538936507292, 'support': 2192.0}, 'weighted avg': {'precision': 0.6591984025080686, 'recall': 0.6605839416058394, 'f1-score': 0.6594579320148174, 'support': 2192.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6052631578947368, 'recall': 0.7976878612716763, 'f1-score': 0.6882793017456359, 'support': 173.0}, 'NonFlaky': {'precision': 0.8356807511737089, 'recall': 0.664179104477612, 'f1-score': 0.7401247401247402, 'support': 268.0}, 'accuracy': 0.7165532879818595, 'macro avg': {'precision': 0.7204719545342229, 'recall': 0.7309334828746441, 'f1-score': 0.714202020935188, 'support': 441.0}, 'weighted avg': {'precision': 0.7452901760325249, 'recall': 0.7165532879818595, 'f1-score': 0.7197862801710325, 'support': 441.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6038647342995169, 'recall': 0.7225433526011561, 'f1-score': 0.6578947368421052, 'support': 173.0}, 'NonFlaky': {'precision': 0.7948717948717948, 'recall': 0.6940298507462687, 'f1-score': 0.7410358565737052, 'support': 268.0}, 'accuracy': 0.7052154195011338, 'macro avg': {'precision': 0.6993682645856558, 'recall': 0.7082866016737124, 'f1-score': 0.6994652967079051, 'support': 441.0}, 'weighted avg': {'precision': 0.7199415874364115, 'recall': 0.7052154195011338, 'f1-score': 0.708420405976048, 'support': 441.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5416666666666666, 'recall': 0.6011560693641619, 'f1-score': 0.5698630136986301, 'support': 173.0}, 'NonFlaky': {'precision': 0.7228915662650602, 'recall': 0.6716417910447762, 'f1-score': 0.6963249516441006, 'support': 268.0}, 'accuracy': 0.6439909297052154, 'macro avg': {'precision': 0.6322791164658634, 'recall': 0.636398930204469, 'f1-score': 0.6330939826713653, 'support': 441.0}, 'weighted avg': {'precision': 0.6517988051981167, 'recall': 0.6439909297052154, 'f1-score': 0.6467151664636779, 'support': 441.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.4666666666666667, 'recall': 0.16184971098265896, 'f1-score': 0.24034334763948495, 'support': 173.0}, 'NonFlaky': {'precision': 0.6194225721784777, 'recall': 0.8805970149253731, 'f1-score': 0.7272727272727273, 'support': 268.0}, 'accuracy': 0.5986394557823129, 'macro avg': {'precision': 0.5430446194225722, 'recall': 0.5212233629540161, 'f1-score': 0.4838080374561061, 'support': 441.0}, 'weighted avg': {'precision': 0.5594979199028693, 'recall': 0.5986394557823129, 'f1-score': 0.5362550794800948, 'support': 441.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5176848874598071, 'recall': 0.930635838150289, 'f1-score': 0.6652892561983471, 'support': 173.0}, 'NonFlaky': {'precision': 0.9076923076923077, 'recall': 0.44029850746268656, 'f1-score': 0.592964824120603, 'support': 268.0}, 'accuracy': 0.6326530612244898, 'macro avg': {'precision': 0.7126885975760574, 'recall': 0.6854671728064878, 'f1-score': 0.6291270401594751, 'support': 441.0}, 'weighted avg': {'precision': 0.7546961995285376, 'recall': 0.6326530612244898, 'f1-score': 0.621336993620489, 'support': 441.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5966386554621849, 'recall': 0.8208092485549133, 'f1-score': 0.6909975669099756, 'support': 173.0}, 'NonFlaky': {'precision': 0.8472906403940886, 'recall': 0.6417910447761194, 'f1-score': 0.7303609341825902, 'support': 268.0}, 'accuracy': 0.7120181405895691, 'macro avg': {'precision': 0.7219646479281367, 'recall': 0.7313001466655163, 'f1-score': 0.7106792505462829, 'support': 441.0}, 'weighted avg': {'precision': 0.7489623107042488, 'recall': 0.7120181405895691, 'f1-score': 0.7149190690166892, 'support': 441.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6869565217391305, 'recall': 0.45664739884393063, 'f1-score': 0.5486111111111112, 'support': 173.0}, 'NonFlaky': {'precision': 0.7116564417177914, 'recall': 0.8656716417910447, 'f1-score': 0.7811447811447811, 'support': 268.0}, 'accuracy': 0.7052154195011338, 'macro avg': {'precision': 0.6993064817284609, 'recall': 0.6611595203174877, 'f1-score': 0.6648779461279462, 'support': 441.0}, 'weighted avg': {'precision': 0.7019669039483847, 'recall': 0.7052154195011338, 'f1-score': 0.689924089725677, 'support': 441.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.44390243902439025, 'recall': 0.5260115606936416, 'f1-score': 0.48148148148148145, 'support': 173.0}, 'NonFlaky': {'precision': 0.652542372881356, 'recall': 0.5746268656716418, 'f1-score': 0.611111111111111, 'support': 268.0}, 'accuracy': 0.5555555555555556, 'macro avg': {'precision': 0.5482224059528731, 'recall': 0.5503192131826418, 'f1-score': 0.5462962962962963, 'support': 441.0}, 'weighted avg': {'precision': 0.5706949611869001, 'recall': 0.5555555555555556, 'f1-score': 0.5602586713697825, 'support': 441.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7151841868823001, 'recall': 0.77734375, 'f1-score': 0.7449695835283107, 'support': 1024.0}, 'NonFlaky': {'precision': 0.814935064935065, 'recall': 0.7600302800908403, 'f1-score': 0.7865256560908734, 'support': 1321.0}, 'accuracy': 0.767590618336887, 'macro avg': {'precision': 0.7650596259086826, 'recall': 0.7686870150454201, 'f1-score': 0.765747619809592, 'support': 2345.0}, 'weighted avg': {'precision': 0.7713764725572265, 'recall': 0.767590618336887, 'f1-score': 0.7683792090528929, 'support': 2345.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6978484565014031, 'recall': 0.728515625, 'f1-score': 0.712852365026278, 'support': 1024.0}, 'NonFlaky': {'precision': 0.7821316614420063, 'recall': 0.7554882664647994, 'f1-score': 0.7685791297651137, 'support': 1321.0}, 'accuracy': 0.7437100213219616, 'macro avg': {'precision': 0.7399900589717048, 'recall': 0.7420019457323996, 'f1-score': 0.7407157473956958, 'support': 2345.0}, 'weighted avg': {'precision': 0.745327396256856, 'recall': 0.7437100213219616, 'f1-score': 0.7442447130945091, 'support': 2345.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6156583629893239, 'recall': 0.67578125, 'f1-score': 0.644320297951583, 'support': 1024.0}, 'NonFlaky': {'precision': 0.7280917280917281, 'recall': 0.6729750189250567, 'f1-score': 0.6994492525570416, 'support': 1321.0}, 'accuracy': 0.6742004264392324, 'macro avg': {'precision': 0.671875045540526, 'recall': 0.6743781344625284, 'f1-score': 0.6718847752543122, 'support': 2345.0}, 'weighted avg': {'precision': 0.6789950262303797, 'recall': 0.6742004264392324, 'f1-score': 0.6753758838935067, 'support': 2345.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7015355086372361, 'recall': 0.7138671875, 'f1-score': 0.707647628267183, 'support': 1024.0}, 'NonFlaky': {'precision': 0.7751343054489639, 'recall': 0.7645722937168812, 'f1-score': 0.7698170731707317, 'support': 1321.0}, 'accuracy': 0.7424307036247335, 'macro avg': {'precision': 0.7383349070431, 'recall': 0.7392197406084406, 'f1-score': 0.7387323507189574, 'support': 2345.0}, 'weighted avg': {'precision': 0.7429956410842692, 'recall': 0.7424307036247335, 'f1-score': 0.7426693070380094, 'support': 2345.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6722222222222223, 'recall': 0.8271484375, 'f1-score': 0.7416812609457093, 'support': 1024.0}, 'NonFlaky': {'precision': 0.8368663594470046, 'recall': 0.6873580620741863, 'f1-score': 0.7547797173732337, 'support': 1321.0}, 'accuracy': 0.7484008528784648, 'macro avg': {'precision': 0.7545442908346134, 'recall': 0.7572532497870932, 'f1-score': 0.7482304891594715, 'support': 2345.0}, 'weighted avg': {'precision': 0.7649705826801914, 'recall': 0.7484008528784648, 'f1-score': 0.7490599649716196, 'support': 2345.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6903052064631957, 'recall': 0.7509765625, 'f1-score': 0.7193638914873713, 'support': 1024.0}, 'NonFlaky': {'precision': 0.7928513403736799, 'recall': 0.7388342165026495, 'f1-score': 0.7648902821316613, 'support': 1321.0}, 'accuracy': 0.744136460554371, 'macro avg': {'precision': 0.7415782734184377, 'recall': 0.7449053895013247, 'f1-score': 0.7421270868095163, 'support': 2345.0}, 'weighted avg': {'precision': 0.7480721330711912, 'recall': 0.744136460554371, 'f1-score': 0.7450101013130034, 'support': 2345.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6492932862190812, 'recall': 0.7177734375, 'f1-score': 0.6818181818181818, 'support': 1024.0}, 'NonFlaky': {'precision': 0.761747732893652, 'recall': 0.6994700984102953, 'f1-score': 0.729281767955801, 'support': 1321.0}, 'accuracy': 0.7074626865671642, 'macro avg': {'precision': 0.7055205095563666, 'recall': 0.7086217679551476, 'f1-score': 0.7055499748869913, 'support': 2345.0}, 'weighted avg': {'precision': 0.7126418252626241, 'recall': 0.7074626865671642, 'f1-score': 0.70855566467012, 'support': 2345.0}}</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6028708133971292, 'recall': 0.615234375, 'f1-score': 0.608989850169164, 'support': 1024.0}, 'NonFlaky': {'precision': 0.696923076923077, 'recall': 0.6858440575321726, 'f1-score': 0.6913391835177414, 'support': 1321.0}, 'accuracy': 0.6550106609808103, 'macro avg': {'precision': 0.6498969451601031, 'recall': 0.6505392162660864, 'f1-score': 0.6501645168434527, 'support': 2345.0}, 'weighted avg': {'precision': 0.6558529200571621, 'recall': 0.6550106609808103, 'f1-score': 0.6553793893390876, 'support': 2345.0}}</t>
   </si>
 </sst>
 </file>
@@ -895,19 +888,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.7955368700195687</v>
+        <v>0.839267416644077</v>
       </c>
       <c r="D2">
-        <v>0.7952313855504902</v>
+        <v>0.8396114632130063</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2">
-        <v>0.5880586517875824</v>
+        <v>0.6748405966227609</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -918,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.7778631182857061</v>
+        <v>0.8213390543158535</v>
       </c>
       <c r="D3">
-        <v>0.7805263157894737</v>
+        <v>0.8232157619178837</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3">
-        <v>0.5503137737359448</v>
+        <v>0.6387295187551297</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -941,19 +934,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.6784242418990361</v>
+        <v>0.7814171395106111</v>
       </c>
       <c r="D4">
-        <v>0.6775176129299627</v>
+        <v>0.7813695232846514</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4">
-        <v>0.3560643948349241</v>
+        <v>0.5598577232875583</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -964,19 +957,19 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.7815930983650445</v>
+        <v>0.8274606064869094</v>
       </c>
       <c r="D5">
-        <v>0.7810719712667497</v>
+        <v>0.8274924221548636</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5">
-        <v>0.5667947542398774</v>
+        <v>0.6520459151255317</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -987,19 +980,19 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.7684326178232322</v>
+        <v>0.8124736427288809</v>
       </c>
       <c r="D6">
-        <v>0.7679430860616107</v>
+        <v>0.8123394874621109</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6">
-        <v>0.5430445926756797</v>
+        <v>0.6249046233339753</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1010,19 +1003,19 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0.8213875019637584</v>
+        <v>0.8587695997315843</v>
       </c>
       <c r="D7">
-        <v>0.8214863931482249</v>
+        <v>0.8595067511711216</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7">
-        <v>0.6386343733657848</v>
+        <v>0.7146739788227491</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1033,19 +1026,19 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.7868386524657037</v>
+        <v>0.8537493683660087</v>
       </c>
       <c r="D8">
-        <v>0.786313026661141</v>
+        <v>0.8542601267566823</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8">
-        <v>0.5766451993612385</v>
+        <v>0.7040611402394391</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1056,19 +1049,19 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.578081079979212</v>
+        <v>0.6046774512512936</v>
       </c>
       <c r="D9">
-        <v>0.5776889073076392</v>
+        <v>0.6043262606778727</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9">
-        <v>0.1474069835918023</v>
+        <v>0.2025469807904779</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1079,19 +1072,19 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>0.8000333000333001</v>
+        <v>0.8834744400385811</v>
       </c>
       <c r="D10">
-        <v>0.8095238095238095</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10">
-        <v>0.6534181866446502</v>
+        <v>0.7845493250024616</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1102,19 +1095,19 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>0.7094797548960712</v>
+        <v>0.8138390709819281</v>
       </c>
       <c r="D11">
-        <v>0.7285714285714285</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11">
-        <v>0.4248276165941575</v>
+        <v>0.6257578086401071</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1125,19 +1118,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.77651079241756</v>
+        <v>0.8620273567531767</v>
       </c>
       <c r="D12">
-        <v>0.7761904761904762</v>
+        <v>0.8619047619047618</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12">
-        <v>0.553288603288682</v>
+        <v>0.7231011812168459</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1148,19 +1141,19 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>0.7476667414805672</v>
+        <v>0.8747188800304224</v>
       </c>
       <c r="D13">
-        <v>0.761904761904762</v>
+        <v>0.8761904761904761</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13">
-        <v>0.556040193605037</v>
+        <v>0.757152543206976</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1171,19 +1164,19 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>0.813099774970964</v>
+        <v>0.888484662077604</v>
       </c>
       <c r="D14">
-        <v>0.8190476190476191</v>
+        <v>0.8904761904761905</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14">
-        <v>0.6568241033085936</v>
+        <v>0.7929687485871456</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1194,19 +1187,19 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>0.8737639767084628</v>
+        <v>0.9280822933032935</v>
       </c>
       <c r="D15">
-        <v>0.8761904761904761</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="E15" t="s">
         <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G15">
-        <v>0.76461522237082</v>
+        <v>0.8600117497855277</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1217,19 +1210,19 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>0.7934260670731708</v>
+        <v>0.8665570175438596</v>
       </c>
       <c r="D16">
-        <v>0.7999999999999999</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16">
-        <v>0.6158396844422128</v>
+        <v>0.7315188549210414</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1240,19 +1233,19 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <v>0.6622049079129499</v>
+        <v>0.7667460335457343</v>
       </c>
       <c r="D17">
-        <v>0.661904761904762</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17">
-        <v>0.3214794924049705</v>
+        <v>0.5411862504160864</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1263,19 +1256,19 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>0.9032918301210986</v>
+        <v>0.9604640192875488</v>
       </c>
       <c r="D18">
-        <v>0.9116666666666667</v>
+        <v>0.9625</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18">
-        <v>0.7615773105863909</v>
+        <v>0.8989976203035663</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1289,13 +1282,13 @@
         <v>0.881392057862646</v>
       </c>
       <c r="D19">
-        <v>0.86</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="E19" t="s">
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19">
         <v>0.6856452438826388</v>
@@ -1309,19 +1302,19 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>0.8073850622870231</v>
+        <v>0.8542815674891145</v>
       </c>
       <c r="D20">
-        <v>0.7941666666666667</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="E20" t="s">
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20">
-        <v>0.6088069153885883</v>
+        <v>0.6824303678006656</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1332,19 +1325,19 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>0.8318858560794044</v>
+        <v>0.881392057862646</v>
       </c>
       <c r="D21">
-        <v>0.8491666666666667</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G21">
-        <v>0.5633809715656511</v>
+        <v>0.6856452438826388</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1355,19 +1348,19 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>0.738927738927739</v>
+        <v>0.7610099823840282</v>
       </c>
       <c r="D22">
-        <v>0.795</v>
+        <v>0.8053571428571429</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G22">
-        <v>0.3959251908590267</v>
+        <v>0.4456794105478751</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1378,19 +1371,19 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>0.8879239040529362</v>
+        <v>0.9326431144612963</v>
       </c>
       <c r="D23">
-        <v>0.8991666666666667</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G23">
-        <v>0.7261354744623948</v>
+        <v>0.8309489698388166</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1401,19 +1394,19 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>0.9604640192875488</v>
+        <v>0.973901507353782</v>
       </c>
       <c r="D24">
-        <v>0.9625</v>
+        <v>0.975</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24">
-        <v>0.8989976203035663</v>
+        <v>0.9327379053088816</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1424,19 +1417,19 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>0.6467133222807455</v>
+        <v>0.682002338418033</v>
       </c>
       <c r="D25">
-        <v>0.63</v>
+        <v>0.675</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G25">
-        <v>0.1557772246388364</v>
+        <v>0.1731227322600962</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1447,19 +1440,19 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>0.7251687560270009</v>
+        <v>0.8737373737373736</v>
       </c>
       <c r="D26">
-        <v>0.7</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G26">
-        <v>0.4233546775014817</v>
+        <v>0.6799343576727906</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1470,19 +1463,19 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <v>0.7381904415710304</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D27">
-        <v>0.7666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G27">
-        <v>0.317718182887574</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1493,19 +1486,19 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <v>0.8536036036036035</v>
+        <v>0.878003003003003</v>
       </c>
       <c r="D28">
-        <v>0.8666666666666666</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G28">
-        <v>0.5765566601970551</v>
+        <v>0.655178022951199</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1516,19 +1509,19 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>0.7552447552447552</v>
+        <v>0.7079569892473119</v>
       </c>
       <c r="D29">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G29">
-        <v>0.2857142857142857</v>
+        <v>0.1037125957683463</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1539,19 +1532,19 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>0.2833333333333333</v>
+        <v>0.7557471264367817</v>
       </c>
       <c r="D30">
-        <v>0.3333333333333333</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G30">
-        <v>0.1889822365046136</v>
+        <v>0.5465357250000211</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1562,19 +1555,19 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>0.8429142649426182</v>
+        <v>0.9023934815820742</v>
       </c>
       <c r="D31">
-        <v>0.8333333333333334</v>
+        <v>0.9</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G31">
-        <v>0.6036645474863905</v>
+        <v>0.7284813545296021</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1585,19 +1578,19 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>0.874074074074074</v>
+        <v>0.843358395989975</v>
       </c>
       <c r="D32">
-        <v>0.888888888888889</v>
+        <v>0.8666666666666668</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G32">
-        <v>0.6614378277661476</v>
+        <v>0.5843487097907775</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1608,19 +1601,19 @@
         <v>13</v>
       </c>
       <c r="C33">
-        <v>0.4889663182346111</v>
+        <v>0.75504051253062</v>
       </c>
       <c r="D33">
-        <v>0.4666666666666666</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G33">
-        <v>0.1860197770991597</v>
+        <v>0.4629490926097362</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1631,19 +1624,19 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>0.7947548448048061</v>
+        <v>0.8397270659154759</v>
       </c>
       <c r="D34">
-        <v>0.7944020356234096</v>
+        <v>0.8404330260022791</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G34">
-        <v>0.5852813329254555</v>
+        <v>0.6750953259207128</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1654,19 +1647,19 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>0.7663050213124029</v>
+        <v>0.7985433762285473</v>
       </c>
       <c r="D35">
-        <v>0.7704834605597964</v>
+        <v>0.7829483062260437</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G35">
-        <v>0.5277109275865038</v>
+        <v>0.5917981637251488</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1677,19 +1670,19 @@
         <v>8</v>
       </c>
       <c r="C36">
-        <v>0.6650527124432053</v>
+        <v>0.7525983384808979</v>
       </c>
       <c r="D36">
-        <v>0.6641221374045801</v>
+        <v>0.752405987775821</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G36">
-        <v>0.3252143257045974</v>
+        <v>0.5000313388408494</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1700,19 +1693,19 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>0.7469997839425578</v>
+        <v>0.7886308335333986</v>
       </c>
       <c r="D37">
-        <v>0.7465648854961833</v>
+        <v>0.7889723402051174</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G37">
-        <v>0.4886452953922154</v>
+        <v>0.5712822559882189</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1723,19 +1716,19 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>0.7660629959745753</v>
+        <v>0.8067428706624808</v>
       </c>
       <c r="D38">
-        <v>0.7653944020356234</v>
+        <v>0.8064073345074071</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G38">
-        <v>0.540045151606093</v>
+        <v>0.6144736828631535</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1746,19 +1739,19 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>0.7943761310764363</v>
+        <v>0.829851634014894</v>
       </c>
       <c r="D39">
-        <v>0.7938931297709924</v>
+        <v>0.8302418937117995</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G39">
-        <v>0.5855357258935461</v>
+        <v>0.6548841658115518</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1769,19 +1762,19 @@
         <v>12</v>
       </c>
       <c r="C40">
-        <v>0.7416538919935995</v>
+        <v>0.811908989980745</v>
       </c>
       <c r="D40">
-        <v>0.7409669211195929</v>
+        <v>0.8118564176939811</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G40">
-        <v>0.4919546054888403</v>
+        <v>0.6193547473327308</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1792,19 +1785,19 @@
         <v>13</v>
       </c>
       <c r="C41">
-        <v>0.5636219504080654</v>
+        <v>0.6316803141148191</v>
       </c>
       <c r="D41">
-        <v>0.5643765903307888</v>
+        <v>0.6317958147726095</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G41">
-        <v>0.1142657800621739</v>
+        <v>0.2536757489068016</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1815,19 +1808,19 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>0.7861425330927515</v>
+        <v>0.8079158205286786</v>
       </c>
       <c r="D42">
-        <v>0.7857032899595386</v>
+        <v>0.8077563304275633</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G42">
-        <v>0.5734391680353621</v>
+        <v>0.6147147117902426</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1838,19 +1831,19 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>0.7182670337076236</v>
+        <v>0.7828034821569066</v>
       </c>
       <c r="D43">
-        <v>0.7049032150695332</v>
+        <v>0.7858073889580739</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G43">
-        <v>0.441228868015416</v>
+        <v>0.5630396196843159</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1861,19 +1854,19 @@
         <v>8</v>
       </c>
       <c r="C44">
-        <v>0.6927481533315212</v>
+        <v>0.7411898411121759</v>
       </c>
       <c r="D44">
-        <v>0.692173994445658</v>
+        <v>0.7411249481112494</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G44">
-        <v>0.3904766009394883</v>
+        <v>0.4933556843289528</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1884,19 +1877,19 @@
         <v>9</v>
       </c>
       <c r="C45">
-        <v>0.7234055054373133</v>
+        <v>0.7551884586610659</v>
       </c>
       <c r="D45">
-        <v>0.7236298769515608</v>
+        <v>0.7547218762972187</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G45">
-        <v>0.4637501808800792</v>
+        <v>0.5101850970816614</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1907,19 +1900,19 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>0.7730536676093174</v>
+        <v>0.7946500949986555</v>
       </c>
       <c r="D46">
-        <v>0.7729532665564119</v>
+        <v>0.7944956413449564</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G46">
-        <v>0.5582739018696746</v>
+        <v>0.5977522446601536</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1930,19 +1923,19 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>0.7659592272890178</v>
+        <v>0.788383798436212</v>
       </c>
       <c r="D47">
-        <v>0.76560572492485</v>
+        <v>0.7881008717310086</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G47">
-        <v>0.5400094591052488</v>
+        <v>0.5762433797453934</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1953,19 +1946,19 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>0.7429764428346486</v>
+        <v>0.784244768697079</v>
       </c>
       <c r="D48">
-        <v>0.7427746746965393</v>
+        <v>0.7839393939393939</v>
       </c>
       <c r="E48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G48">
-        <v>0.4975507860185306</v>
+        <v>0.5748637787577809</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1976,19 +1969,19 @@
         <v>13</v>
       </c>
       <c r="C49">
-        <v>0.5961621807298785</v>
+        <v>0.6594579320148174</v>
       </c>
       <c r="D49">
-        <v>0.599516335382407</v>
+        <v>0.6608073889580739</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G49">
-        <v>0.1826953140653347</v>
+        <v>0.3107843356929739</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1999,19 +1992,19 @@
         <v>6</v>
       </c>
       <c r="C50">
-        <v>0.6763439176954646</v>
+        <v>0.7197862801710325</v>
       </c>
       <c r="D50">
-        <v>0.6755873340143004</v>
+        <v>0.7170707070707071</v>
       </c>
       <c r="E50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G50">
-        <v>0.4115315264840719</v>
+        <v>0.4512841957647898</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2022,19 +2015,19 @@
         <v>7</v>
       </c>
       <c r="C51">
-        <v>0.6123866563345544</v>
+        <v>0.7084204059760481</v>
       </c>
       <c r="D51">
-        <v>0.6280898876404495</v>
+        <v>0.7161616161616162</v>
       </c>
       <c r="E51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G51">
-        <v>0.2606038425833626</v>
+        <v>0.4075573005707629</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2045,19 +2038,19 @@
         <v>8</v>
       </c>
       <c r="C52">
-        <v>0.6075370401476297</v>
+        <v>0.6467151664636779</v>
       </c>
       <c r="D52">
-        <v>0.6054136874361593</v>
+        <v>0.6444949494949495</v>
       </c>
       <c r="E52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G52">
-        <v>0.1828236905217066</v>
+        <v>0.2686464589331944</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2068,19 +2061,19 @@
         <v>9</v>
       </c>
       <c r="C53">
-        <v>0.533489801695971</v>
+        <v>0.5362550794800948</v>
       </c>
       <c r="D53">
-        <v>0.5487742594484167</v>
+        <v>0.5988383838383837</v>
       </c>
       <c r="E53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G53">
-        <v>0.01020892351498153</v>
+        <v>0.06045003163680687</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2091,19 +2084,19 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <v>0.5894948158752157</v>
+        <v>0.621336993620489</v>
       </c>
       <c r="D54">
-        <v>0.6078907048008171</v>
+        <v>0.633080808080808</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G54">
-        <v>0.3714180802297814</v>
+        <v>0.3972241326032857</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2114,19 +2107,19 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>0.6752607420340609</v>
+        <v>0.7149190690166892</v>
       </c>
       <c r="D55">
-        <v>0.6735444330949948</v>
+        <v>0.7126262626262625</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G55">
-        <v>0.394656276470902</v>
+        <v>0.4531686468428183</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2137,19 +2130,19 @@
         <v>12</v>
       </c>
       <c r="C56">
-        <v>0.7470165939133119</v>
+        <v>0.689924089725677</v>
       </c>
       <c r="D56">
-        <v>0.7481869254341165</v>
+        <v>0.7051515151515151</v>
       </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G56">
-        <v>0.4676249743859453</v>
+        <v>0.3584418334487474</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2160,19 +2153,19 @@
         <v>13</v>
       </c>
       <c r="C57">
-        <v>0.5493318594345119</v>
+        <v>0.5602586713697825</v>
       </c>
       <c r="D57">
-        <v>0.5441777323799796</v>
+        <v>0.556060606060606</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G57">
-        <v>0.1001588746199126</v>
+        <v>0.09851930826640047</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2183,19 +2176,19 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>0.7417321354876324</v>
+        <v>0.7683792090528929</v>
       </c>
       <c r="D58">
-        <v>0.740724946695096</v>
+        <v>0.767708674304419</v>
       </c>
       <c r="E58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G58">
-        <v>0.4823974008164158</v>
+        <v>0.5337343147838993</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2206,19 +2199,19 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>0.6854081298991349</v>
+        <v>0.7442447130945091</v>
       </c>
       <c r="D59">
-        <v>0.6814498933901919</v>
+        <v>0.7502327695944717</v>
       </c>
       <c r="E59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G59">
-        <v>0.3803584431705616</v>
+        <v>0.4819878057693406</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2229,19 +2222,19 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>0.6651463923091784</v>
+        <v>0.6753758838935067</v>
       </c>
       <c r="D60">
-        <v>0.6643923240938167</v>
+        <v>0.6742844153482451</v>
       </c>
       <c r="E60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G60">
-        <v>0.3433939430240474</v>
+        <v>0.3462441323807179</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2252,19 +2245,19 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>0.6486901506245947</v>
+        <v>0.7426693070380094</v>
       </c>
       <c r="D61">
-        <v>0.6486140724946695</v>
+        <v>0.7424968176032005</v>
       </c>
       <c r="E61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F61" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G61">
-        <v>0.2860865271280276</v>
+        <v>0.4775538279222026</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2275,19 +2268,19 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>0.7059824947093495</v>
+        <v>0.7490599649716196</v>
       </c>
       <c r="D62">
-        <v>0.7070362473347548</v>
+        <v>0.7485942898708856</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G62">
-        <v>0.446547745746369</v>
+        <v>0.5117903712730645</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2298,19 +2291,19 @@
         <v>11</v>
       </c>
       <c r="C63">
-        <v>0.7050357904622018</v>
+        <v>0.7450101013130034</v>
       </c>
       <c r="D63">
-        <v>0.7040511727078892</v>
+        <v>0.7442480450991089</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F63" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G63">
-        <v>0.4186888670108858</v>
+        <v>0.4864722855275521</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2321,19 +2314,19 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>0.626447670165021</v>
+        <v>0.70855566467012</v>
       </c>
       <c r="D64">
-        <v>0.6251599147121535</v>
+        <v>0.7075450081833061</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G64">
-        <v>0.2463869120440582</v>
+        <v>0.4141306656343721</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2344,19 +2337,19 @@
         <v>13</v>
       </c>
       <c r="C65">
-        <v>0.5575249026453939</v>
+        <v>0.6553793893390876</v>
       </c>
       <c r="D65">
-        <v>0.5569296375266524</v>
+        <v>0.6550863793416984</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G65">
-        <v>0.1021024087970919</v>
+        <v>0.3004354749032306</v>
       </c>
     </row>
   </sheetData>
